--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_17_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_17_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1952392.123874563</v>
+        <v>1979857.467839565</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6486630.972584559</v>
+        <v>6486630.972584564</v>
       </c>
     </row>
     <row r="9">
@@ -1387,10 +1387,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>182.7729864828788</v>
       </c>
       <c r="V11" t="n">
-        <v>152.0880620397476</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1448,13 +1448,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>116.392482396883</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>76.00196508919095</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -1466,10 +1466,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H12" t="n">
-        <v>93.13436112172582</v>
+        <v>93.13436112172583</v>
       </c>
       <c r="I12" t="n">
-        <v>21.30239922246433</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>77.22810184760171</v>
+        <v>31.71525773563592</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>220.8610019386828</v>
@@ -1587,16 +1587,16 @@
         <v>286.2285878140705</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,19 +1606,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>154.5302264532489</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>67.96895394968166</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1666,16 +1666,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>305.2777049907511</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>135.3657483393379</v>
+        <v>63.92264786388922</v>
       </c>
       <c r="H15" t="n">
-        <v>93.13436112172582</v>
+        <v>93.13436112172583</v>
       </c>
       <c r="I15" t="n">
-        <v>21.30239922246435</v>
+        <v>21.30239922246437</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>63.50388216742162</v>
+        <v>134.9469826428689</v>
       </c>
       <c r="T15" t="n">
         <v>192.192932426668</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>93.88618278430866</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>102.7394132419461</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1821,19 +1821,19 @@
         <v>220.8610019386828</v>
       </c>
       <c r="U16" t="n">
-        <v>240.4491887273971</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1849,19 +1849,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>123.8806927483496</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>59.22036341128744</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1906,13 +1906,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1979,10 +1979,10 @@
         <v>192.192932426668</v>
       </c>
       <c r="U18" t="n">
-        <v>154.368165235535</v>
+        <v>225.8112657109832</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>161.3574866739762</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>132.8914789560928</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T19" t="n">
-        <v>94.79299548590352</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2086,16 +2086,16 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2134,22 +2134,22 @@
         <v>124.7874829717001</v>
       </c>
       <c r="T20" t="n">
-        <v>206.9146911261644</v>
+        <v>71.44096511280601</v>
       </c>
       <c r="U20" t="n">
         <v>251.0499378478622</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>17.08015688057674</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2177,7 +2177,7 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H21" t="n">
-        <v>21.69126064627671</v>
+        <v>93.13436112172583</v>
       </c>
       <c r="I21" t="n">
         <v>21.30239922246436</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>134.9469826428689</v>
+        <v>63.50388216741982</v>
       </c>
       <c r="T21" t="n">
         <v>192.192932426668</v>
@@ -2244,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>124.8634259883403</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>53.76397372915823</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>220.8610019386828</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2329,16 +2329,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>67.96895394968163</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>206.9146911261644</v>
       </c>
       <c r="U23" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>282.28915921126</v>
+        <v>40.60210621866169</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2453,7 +2453,7 @@
         <v>192.192932426668</v>
       </c>
       <c r="U24" t="n">
-        <v>225.8112657109824</v>
+        <v>225.8112657109833</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>78.71851917240684</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>220.8610019386828</v>
@@ -2535,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>114.4382862095216</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2554,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>401.5253002789292</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V26" t="n">
-        <v>159.7262843117668</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2645,7 +2645,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933837</v>
       </c>
       <c r="G27" t="n">
         <v>135.3657483393379</v>
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2766,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>119.204047825177</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>245.1908416726469</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2794,22 +2794,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>242.9106133127628</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>219.7087136648021</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2958,16 +2958,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>52.71314290177937</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>60.29344751539858</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H31" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3009,13 +3009,13 @@
         <v>286.2285878140705</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>339.8575953244508</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>411.6062992654567</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T32" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3091,10 +3091,10 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>65.80605672835233</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3125,10 +3125,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H33" t="n">
-        <v>93.13436112172572</v>
+        <v>93.13436112172583</v>
       </c>
       <c r="I33" t="n">
-        <v>21.30239922246436</v>
+        <v>21.30239922246426</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>53.76438134812318</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U34" t="n">
-        <v>78.65838495098647</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3274,19 +3274,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>41.2838686632584</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H35" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3331,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>135.9054986624819</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>94.79299548590363</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>53.76397372915823</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2285878140705</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>30.08556306465618</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3556,22 +3556,22 @@
         <v>124.7874829717001</v>
       </c>
       <c r="T38" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>380.976583146587</v>
       </c>
     </row>
     <row r="39">
@@ -3587,7 +3587,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>76.0019650891896</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -3638,7 +3638,7 @@
         <v>192.192932426668</v>
       </c>
       <c r="U39" t="n">
-        <v>154.3681652355341</v>
+        <v>225.8112657109832</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3739,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>411.6062992654567</v>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>8.697831239662023</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>124.7874829717001</v>
+        <v>77.54728525389923</v>
       </c>
       <c r="T41" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>95.09008317442365</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -3836,10 +3836,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H42" t="n">
-        <v>93.13436112172583</v>
+        <v>42.99365986874107</v>
       </c>
       <c r="I42" t="n">
-        <v>21.30239922246436</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>94.79299548590352</v>
       </c>
       <c r="U43" t="n">
-        <v>5.388027633580738</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3982,19 +3982,19 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>334.6901723544613</v>
       </c>
       <c r="F44" t="n">
-        <v>117.8820050226511</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H44" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4030,22 +4030,22 @@
         <v>124.7874829717001</v>
       </c>
       <c r="T44" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4058,7 +4058,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>101.2653985128666</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>63.50388216742522</v>
+        <v>134.9469826428689</v>
       </c>
       <c r="T45" t="n">
         <v>192.192932426668</v>
@@ -4152,10 +4152,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>98.8250003133699</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>195.1205252336517</v>
       </c>
       <c r="T46" t="n">
-        <v>220.8610019386828</v>
+        <v>131.6250397513256</v>
       </c>
       <c r="U46" t="n">
         <v>286.2285878140705</v>
@@ -4197,13 +4197,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1081.711351436722</v>
+        <v>845.7015535159467</v>
       </c>
       <c r="C11" t="n">
-        <v>712.7488344963099</v>
+        <v>476.739036575535</v>
       </c>
       <c r="D11" t="n">
-        <v>354.4831358895594</v>
+        <v>118.4733379687844</v>
       </c>
       <c r="E11" t="n">
-        <v>354.4831358895594</v>
+        <v>118.4733379687844</v>
       </c>
       <c r="F11" t="n">
-        <v>354.4831358895594</v>
+        <v>118.4733379687844</v>
       </c>
       <c r="G11" t="n">
-        <v>354.4831358895594</v>
+        <v>118.4733379687844</v>
       </c>
       <c r="H11" t="n">
-        <v>49.817828928702</v>
+        <v>118.4733379687844</v>
       </c>
       <c r="I11" t="n">
-        <v>49.817828928702</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J11" t="n">
-        <v>181.1756535819835</v>
+        <v>181.1756535819834</v>
       </c>
       <c r="K11" t="n">
-        <v>428.785499979949</v>
+        <v>428.7854999799487</v>
       </c>
       <c r="L11" t="n">
-        <v>772.8691714549154</v>
+        <v>772.8691714549145</v>
       </c>
       <c r="M11" t="n">
-        <v>1187.397991240659</v>
+        <v>1187.397991240658</v>
       </c>
       <c r="N11" t="n">
-        <v>1613.248129085908</v>
+        <v>1613.248129085906</v>
       </c>
       <c r="O11" t="n">
-        <v>2002.031077317524</v>
+        <v>2002.031077317523</v>
       </c>
       <c r="P11" t="n">
-        <v>2299.34732796285</v>
+        <v>2299.347327962849</v>
       </c>
       <c r="Q11" t="n">
-        <v>2474.446703561747</v>
+        <v>2474.446703561746</v>
       </c>
       <c r="R11" t="n">
-        <v>2490.8914464351</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="S11" t="n">
-        <v>2364.843483837423</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="T11" t="n">
-        <v>2364.843483837423</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="U11" t="n">
-        <v>2364.843483837423</v>
+        <v>2306.272268169565</v>
       </c>
       <c r="V11" t="n">
-        <v>2211.219178746769</v>
+        <v>1975.209380825994</v>
       </c>
       <c r="W11" t="n">
-        <v>1858.450523476655</v>
+        <v>1622.44072555588</v>
       </c>
       <c r="X11" t="n">
-        <v>1858.450523476655</v>
+        <v>1622.44072555588</v>
       </c>
       <c r="Y11" t="n">
-        <v>1468.311191500843</v>
+        <v>1232.301393580068</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>859.1382992416511</v>
+        <v>909.7854722244628</v>
       </c>
       <c r="C12" t="n">
-        <v>684.6852699605241</v>
+        <v>735.3324429433358</v>
       </c>
       <c r="D12" t="n">
-        <v>607.9156082542706</v>
+        <v>586.3980332820845</v>
       </c>
       <c r="E12" t="n">
-        <v>448.6781532488151</v>
+        <v>427.1605782766289</v>
       </c>
       <c r="F12" t="n">
-        <v>302.1435952757</v>
+        <v>280.6260203035139</v>
       </c>
       <c r="G12" t="n">
-        <v>165.4105161450557</v>
+        <v>143.8929411728695</v>
       </c>
       <c r="H12" t="n">
-        <v>71.3354039008882</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I12" t="n">
-        <v>49.817828928702</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J12" t="n">
-        <v>234.0659274310208</v>
+        <v>234.0659274310207</v>
       </c>
       <c r="K12" t="n">
-        <v>413.7755328491963</v>
+        <v>560.6342506504917</v>
       </c>
       <c r="L12" t="n">
-        <v>701.739816031859</v>
+        <v>848.5985338331543</v>
       </c>
       <c r="M12" t="n">
-        <v>1057.137420280531</v>
+        <v>1203.996138081826</v>
       </c>
       <c r="N12" t="n">
-        <v>1436.349986510836</v>
+        <v>1583.208704312131</v>
       </c>
       <c r="O12" t="n">
-        <v>1761.035604224593</v>
+        <v>1907.894322025888</v>
       </c>
       <c r="P12" t="n">
-        <v>2317.56951193984</v>
+        <v>2149.150088787597</v>
       </c>
       <c r="Q12" t="n">
-        <v>2468.480498228521</v>
+        <v>2468.48049822852</v>
       </c>
       <c r="R12" t="n">
-        <v>2490.8914464351</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="S12" t="n">
-        <v>2354.581362957455</v>
+        <v>2354.581362957454</v>
       </c>
       <c r="T12" t="n">
-        <v>2160.447087779002</v>
+        <v>2160.447087779001</v>
       </c>
       <c r="U12" t="n">
-        <v>1932.35490019215</v>
+        <v>1932.354900192149</v>
       </c>
       <c r="V12" t="n">
         <v>1697.202791960407</v>
       </c>
       <c r="W12" t="n">
-        <v>1442.965435232206</v>
+        <v>1442.965435232205</v>
       </c>
       <c r="X12" t="n">
-        <v>1235.113935026673</v>
+        <v>1235.113935026672</v>
       </c>
       <c r="Y12" t="n">
-        <v>1027.353636261719</v>
+        <v>1027.353636261718</v>
       </c>
     </row>
     <row r="13">
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>127.8260126131482</v>
+        <v>694.5676174101941</v>
       </c>
       <c r="C13" t="n">
-        <v>127.8260126131482</v>
+        <v>525.6314344822872</v>
       </c>
       <c r="D13" t="n">
-        <v>127.8260126131482</v>
+        <v>525.6314344822872</v>
       </c>
       <c r="E13" t="n">
-        <v>127.8260126131482</v>
+        <v>377.7183408998941</v>
       </c>
       <c r="F13" t="n">
-        <v>127.8260126131482</v>
+        <v>230.8283934019837</v>
       </c>
       <c r="G13" t="n">
-        <v>49.817828928702</v>
+        <v>198.792779527604</v>
       </c>
       <c r="H13" t="n">
-        <v>49.817828928702</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I13" t="n">
-        <v>49.817828928702</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J13" t="n">
-        <v>73.44728005477637</v>
+        <v>73.44728005477631</v>
       </c>
       <c r="K13" t="n">
-        <v>242.1145636490679</v>
+        <v>242.1145636490678</v>
       </c>
       <c r="L13" t="n">
-        <v>513.4770511394357</v>
+        <v>513.4770511394356</v>
       </c>
       <c r="M13" t="n">
-        <v>809.9798694642503</v>
+        <v>809.9798694642501</v>
       </c>
       <c r="N13" t="n">
-        <v>1104.867129907539</v>
+        <v>1104.867129907538</v>
       </c>
       <c r="O13" t="n">
-        <v>1361.226948298603</v>
+        <v>1361.226948298602</v>
       </c>
       <c r="P13" t="n">
         <v>1557.066378230431</v>
@@ -5226,25 +5226,25 @@
         <v>1609.220368204927</v>
       </c>
       <c r="S13" t="n">
-        <v>1412.128928574976</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="T13" t="n">
-        <v>1189.037007424791</v>
+        <v>1386.128447054742</v>
       </c>
       <c r="U13" t="n">
-        <v>899.917221754013</v>
+        <v>1097.008661383964</v>
       </c>
       <c r="V13" t="n">
-        <v>645.2327335481261</v>
+        <v>1097.008661383964</v>
       </c>
       <c r="W13" t="n">
-        <v>355.8155635111655</v>
+        <v>1097.008661383964</v>
       </c>
       <c r="X13" t="n">
-        <v>127.8260126131482</v>
+        <v>1097.008661383964</v>
       </c>
       <c r="Y13" t="n">
-        <v>127.8260126131482</v>
+        <v>876.2160822404338</v>
       </c>
     </row>
     <row r="14">
@@ -5254,31 +5254,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>777.0460444758642</v>
+        <v>1429.604331794951</v>
       </c>
       <c r="C14" t="n">
-        <v>408.0835275354525</v>
+        <v>1273.513193963387</v>
       </c>
       <c r="D14" t="n">
-        <v>49.81782892870201</v>
+        <v>915.2474953566364</v>
       </c>
       <c r="E14" t="n">
-        <v>49.81782892870201</v>
+        <v>529.4592427583921</v>
       </c>
       <c r="F14" t="n">
-        <v>49.81782892870201</v>
+        <v>118.4733379687845</v>
       </c>
       <c r="G14" t="n">
-        <v>49.81782892870201</v>
+        <v>118.4733379687845</v>
       </c>
       <c r="H14" t="n">
-        <v>49.81782892870201</v>
+        <v>118.4733379687845</v>
       </c>
       <c r="I14" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J14" t="n">
-        <v>181.1756535819834</v>
+        <v>181.1756535819836</v>
       </c>
       <c r="K14" t="n">
         <v>428.7854999799488</v>
@@ -5287,43 +5287,43 @@
         <v>772.8691714549152</v>
       </c>
       <c r="M14" t="n">
-        <v>1187.397991240659</v>
+        <v>1187.397991240658</v>
       </c>
       <c r="N14" t="n">
-        <v>1613.248129085908</v>
+        <v>1613.248129085907</v>
       </c>
       <c r="O14" t="n">
-        <v>2002.031077317525</v>
+        <v>2002.031077317523</v>
       </c>
       <c r="P14" t="n">
-        <v>2299.34732796285</v>
+        <v>2299.347327962848</v>
       </c>
       <c r="Q14" t="n">
-        <v>2474.446703561748</v>
+        <v>2474.446703561746</v>
       </c>
       <c r="R14" t="n">
-        <v>2490.891446435101</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="S14" t="n">
-        <v>2364.843483837424</v>
+        <v>2364.843483837422</v>
       </c>
       <c r="T14" t="n">
-        <v>2155.838745326147</v>
+        <v>2155.838745326145</v>
       </c>
       <c r="U14" t="n">
-        <v>2155.838745326147</v>
+        <v>2155.838745326145</v>
       </c>
       <c r="V14" t="n">
-        <v>1824.775857982576</v>
+        <v>2155.838745326145</v>
       </c>
       <c r="W14" t="n">
-        <v>1472.007202712462</v>
+        <v>1803.070090056031</v>
       </c>
       <c r="X14" t="n">
-        <v>1472.007202712462</v>
+        <v>1429.604331794951</v>
       </c>
       <c r="Y14" t="n">
-        <v>1163.645884539986</v>
+        <v>1429.604331794951</v>
       </c>
     </row>
     <row r="15">
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>931.3030471966489</v>
+        <v>859.1382992416502</v>
       </c>
       <c r="C15" t="n">
-        <v>756.8500179155219</v>
+        <v>684.6852699605232</v>
       </c>
       <c r="D15" t="n">
-        <v>607.9156082542706</v>
+        <v>535.7508602992719</v>
       </c>
       <c r="E15" t="n">
-        <v>448.6781532488152</v>
+        <v>376.5134052938164</v>
       </c>
       <c r="F15" t="n">
-        <v>302.1435952757001</v>
+        <v>229.9788473207014</v>
       </c>
       <c r="G15" t="n">
         <v>165.4105161450557</v>
@@ -5354,55 +5354,55 @@
         <v>71.33540390088822</v>
       </c>
       <c r="I15" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J15" t="n">
-        <v>234.0659274310208</v>
+        <v>234.0659274310207</v>
       </c>
       <c r="K15" t="n">
-        <v>583.0451988570721</v>
+        <v>560.6342506504922</v>
       </c>
       <c r="L15" t="n">
-        <v>871.0094820397347</v>
+        <v>848.5985338331546</v>
       </c>
       <c r="M15" t="n">
-        <v>1226.407086288406</v>
+        <v>1203.996138081826</v>
       </c>
       <c r="N15" t="n">
-        <v>1605.619652518711</v>
+        <v>1583.208704312131</v>
       </c>
       <c r="O15" t="n">
-        <v>1930.305270232468</v>
+        <v>1907.894322025888</v>
       </c>
       <c r="P15" t="n">
-        <v>2171.561036994177</v>
+        <v>2149.150088787597</v>
       </c>
       <c r="Q15" t="n">
-        <v>2490.891446435101</v>
+        <v>2468.48049822852</v>
       </c>
       <c r="R15" t="n">
-        <v>2490.891446435101</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="S15" t="n">
-        <v>2426.746110912452</v>
+        <v>2354.581362957454</v>
       </c>
       <c r="T15" t="n">
-        <v>2232.611835734</v>
+        <v>2160.447087779001</v>
       </c>
       <c r="U15" t="n">
-        <v>2004.519648147148</v>
+        <v>1932.354900192149</v>
       </c>
       <c r="V15" t="n">
-        <v>1769.367539915405</v>
+        <v>1697.202791960407</v>
       </c>
       <c r="W15" t="n">
-        <v>1515.130183187204</v>
+        <v>1442.965435232205</v>
       </c>
       <c r="X15" t="n">
-        <v>1307.278682981671</v>
+        <v>1235.113935026672</v>
       </c>
       <c r="Y15" t="n">
-        <v>1099.518384216717</v>
+        <v>1027.353636261718</v>
       </c>
     </row>
     <row r="16">
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>196.7077764266124</v>
+        <v>738.5469880852015</v>
       </c>
       <c r="C16" t="n">
-        <v>196.7077764266124</v>
+        <v>738.5469880852015</v>
       </c>
       <c r="D16" t="n">
-        <v>196.7077764266124</v>
+        <v>588.4303486728658</v>
       </c>
       <c r="E16" t="n">
-        <v>196.7077764266124</v>
+        <v>440.5172550904726</v>
       </c>
       <c r="F16" t="n">
-        <v>49.81782892870201</v>
+        <v>293.6273075925623</v>
       </c>
       <c r="G16" t="n">
-        <v>49.81782892870201</v>
+        <v>198.792779527604</v>
       </c>
       <c r="H16" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I16" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J16" t="n">
-        <v>73.44728005477636</v>
+        <v>73.44728005477629</v>
       </c>
       <c r="K16" t="n">
-        <v>242.1145636490679</v>
+        <v>242.1145636490677</v>
       </c>
       <c r="L16" t="n">
-        <v>513.4770511394356</v>
+        <v>513.4770511394354</v>
       </c>
       <c r="M16" t="n">
-        <v>809.9798694642501</v>
+        <v>809.9798694642498</v>
       </c>
       <c r="N16" t="n">
         <v>1104.867129907538</v>
@@ -5454,34 +5454,34 @@
         <v>1361.226948298602</v>
       </c>
       <c r="P16" t="n">
-        <v>1557.066378230431</v>
+        <v>1557.06637823043</v>
       </c>
       <c r="Q16" t="n">
-        <v>1609.220368204927</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="R16" t="n">
-        <v>1609.220368204927</v>
+        <v>1505.443183112051</v>
       </c>
       <c r="S16" t="n">
-        <v>1609.220368204927</v>
+        <v>1505.443183112051</v>
       </c>
       <c r="T16" t="n">
-        <v>1386.128447054742</v>
+        <v>1282.351261961867</v>
       </c>
       <c r="U16" t="n">
-        <v>1143.25047864323</v>
+        <v>993.2314762910884</v>
       </c>
       <c r="V16" t="n">
-        <v>888.5659904373429</v>
+        <v>738.5469880852015</v>
       </c>
       <c r="W16" t="n">
-        <v>599.1488204003822</v>
+        <v>738.5469880852015</v>
       </c>
       <c r="X16" t="n">
-        <v>599.1488204003822</v>
+        <v>738.5469880852015</v>
       </c>
       <c r="Y16" t="n">
-        <v>378.3562412568521</v>
+        <v>738.5469880852015</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1340.686516134086</v>
+        <v>1109.233905428215</v>
       </c>
       <c r="C17" t="n">
-        <v>971.7239991936747</v>
+        <v>740.2713884878037</v>
       </c>
       <c r="D17" t="n">
-        <v>846.5919863165539</v>
+        <v>740.2713884878037</v>
       </c>
       <c r="E17" t="n">
-        <v>460.8037337183096</v>
+        <v>354.4831358895594</v>
       </c>
       <c r="F17" t="n">
-        <v>49.81782892870199</v>
+        <v>354.4831358895594</v>
       </c>
       <c r="G17" t="n">
-        <v>49.81782892870199</v>
+        <v>354.4831358895594</v>
       </c>
       <c r="H17" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="I17" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J17" t="n">
-        <v>181.1756535819836</v>
+        <v>181.1756535819834</v>
       </c>
       <c r="K17" t="n">
-        <v>428.7854999799492</v>
+        <v>428.7854999799487</v>
       </c>
       <c r="L17" t="n">
-        <v>772.8691714549157</v>
+        <v>772.8691714549145</v>
       </c>
       <c r="M17" t="n">
-        <v>1187.397991240659</v>
+        <v>1187.397991240658</v>
       </c>
       <c r="N17" t="n">
-        <v>1613.248129085908</v>
+        <v>1613.248129085906</v>
       </c>
       <c r="O17" t="n">
-        <v>2002.031077317524</v>
+        <v>2002.031077317523</v>
       </c>
       <c r="P17" t="n">
         <v>2299.347327962849</v>
       </c>
       <c r="Q17" t="n">
-        <v>2474.446703561747</v>
+        <v>2474.446703561746</v>
       </c>
       <c r="R17" t="n">
-        <v>2490.8914464351</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="S17" t="n">
-        <v>2490.8914464351</v>
+        <v>2431.072897534808</v>
       </c>
       <c r="T17" t="n">
-        <v>2490.8914464351</v>
+        <v>2222.068159023531</v>
       </c>
       <c r="U17" t="n">
-        <v>2490.8914464351</v>
+        <v>2222.068159023531</v>
       </c>
       <c r="V17" t="n">
-        <v>2490.8914464351</v>
+        <v>2222.068159023531</v>
       </c>
       <c r="W17" t="n">
-        <v>2490.8914464351</v>
+        <v>1869.299503753417</v>
       </c>
       <c r="X17" t="n">
-        <v>2117.42568817402</v>
+        <v>1495.833745492337</v>
       </c>
       <c r="Y17" t="n">
-        <v>1727.286356198208</v>
+        <v>1495.833745492337</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>607.9156082542706</v>
       </c>
       <c r="E18" t="n">
-        <v>448.6781532488152</v>
+        <v>448.6781532488151</v>
       </c>
       <c r="F18" t="n">
         <v>302.1435952757001</v>
@@ -5588,46 +5588,46 @@
         <v>165.4105161450557</v>
       </c>
       <c r="H18" t="n">
-        <v>71.33540390088822</v>
+        <v>71.3354039008882</v>
       </c>
       <c r="I18" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J18" t="n">
-        <v>234.0659274310208</v>
+        <v>234.0659274310207</v>
       </c>
       <c r="K18" t="n">
-        <v>675.596117491649</v>
+        <v>413.7755328491961</v>
       </c>
       <c r="L18" t="n">
-        <v>963.5604006743116</v>
+        <v>1030.271165841883</v>
       </c>
       <c r="M18" t="n">
-        <v>1318.958004922983</v>
+        <v>1385.668770090555</v>
       </c>
       <c r="N18" t="n">
-        <v>1698.170571153288</v>
+        <v>1764.881336320859</v>
       </c>
       <c r="O18" t="n">
-        <v>2022.856188867045</v>
+        <v>2089.566954034616</v>
       </c>
       <c r="P18" t="n">
-        <v>2264.111955628754</v>
+        <v>2330.822720796325</v>
       </c>
       <c r="Q18" t="n">
-        <v>2490.8914464351</v>
+        <v>2468.48049822852</v>
       </c>
       <c r="R18" t="n">
-        <v>2490.8914464351</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="S18" t="n">
-        <v>2354.581362957454</v>
+        <v>2354.581362957453</v>
       </c>
       <c r="T18" t="n">
-        <v>2160.447087779001</v>
+        <v>2160.447087779</v>
       </c>
       <c r="U18" t="n">
-        <v>2004.519648147148</v>
+        <v>1932.354900192149</v>
       </c>
       <c r="V18" t="n">
         <v>1769.367539915405</v>
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>49.81782892870199</v>
+        <v>795.8426522949553</v>
       </c>
       <c r="C19" t="n">
-        <v>49.81782892870199</v>
+        <v>795.8426522949553</v>
       </c>
       <c r="D19" t="n">
-        <v>49.81782892870199</v>
+        <v>661.6088351675888</v>
       </c>
       <c r="E19" t="n">
-        <v>49.81782892870199</v>
+        <v>513.6957415851957</v>
       </c>
       <c r="F19" t="n">
-        <v>49.81782892870199</v>
+        <v>366.8057940872854</v>
       </c>
       <c r="G19" t="n">
-        <v>49.81782892870199</v>
+        <v>198.792779527604</v>
       </c>
       <c r="H19" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="I19" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J19" t="n">
-        <v>73.44728005477633</v>
+        <v>73.44728005477631</v>
       </c>
       <c r="K19" t="n">
         <v>242.1145636490678</v>
@@ -5697,28 +5697,28 @@
         <v>1609.220368204927</v>
       </c>
       <c r="R19" t="n">
-        <v>1609.220368204927</v>
+        <v>1505.443183112052</v>
       </c>
       <c r="S19" t="n">
-        <v>1609.220368204927</v>
+        <v>1308.351743482101</v>
       </c>
       <c r="T19" t="n">
-        <v>1513.469867714115</v>
+        <v>1085.259822331916</v>
       </c>
       <c r="U19" t="n">
-        <v>1224.350082043337</v>
+        <v>1085.259822331916</v>
       </c>
       <c r="V19" t="n">
-        <v>969.6655938374497</v>
+        <v>1085.259822331916</v>
       </c>
       <c r="W19" t="n">
-        <v>680.2484238004891</v>
+        <v>795.8426522949553</v>
       </c>
       <c r="X19" t="n">
-        <v>452.2588729024718</v>
+        <v>795.8426522949553</v>
       </c>
       <c r="Y19" t="n">
-        <v>231.4662937589417</v>
+        <v>795.8426522949553</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>793.8717801336968</v>
+        <v>1262.35592496853</v>
       </c>
       <c r="C20" t="n">
-        <v>793.8717801336968</v>
+        <v>1262.35592496853</v>
       </c>
       <c r="D20" t="n">
-        <v>435.6060815269462</v>
+        <v>1262.35592496853</v>
       </c>
       <c r="E20" t="n">
-        <v>49.81782892870198</v>
+        <v>876.5676723702861</v>
       </c>
       <c r="F20" t="n">
-        <v>49.81782892870198</v>
+        <v>465.5817675806785</v>
       </c>
       <c r="G20" t="n">
         <v>49.81782892870198</v>
@@ -5752,22 +5752,22 @@
         <v>49.81782892870198</v>
       </c>
       <c r="J20" t="n">
-        <v>181.1756535819834</v>
+        <v>181.1756535819833</v>
       </c>
       <c r="K20" t="n">
         <v>428.7854999799487</v>
       </c>
       <c r="L20" t="n">
-        <v>772.8691714549145</v>
+        <v>772.869171454915</v>
       </c>
       <c r="M20" t="n">
-        <v>1187.397991240658</v>
+        <v>1187.397991240659</v>
       </c>
       <c r="N20" t="n">
-        <v>1613.248129085906</v>
+        <v>1613.248129085907</v>
       </c>
       <c r="O20" t="n">
-        <v>2002.031077317523</v>
+        <v>2002.031077317524</v>
       </c>
       <c r="P20" t="n">
         <v>2299.347327962849</v>
@@ -5782,22 +5782,22 @@
         <v>2364.843483837422</v>
       </c>
       <c r="T20" t="n">
-        <v>2155.838745326145</v>
+        <v>2292.680892814386</v>
       </c>
       <c r="U20" t="n">
-        <v>1902.252949520223</v>
+        <v>2039.095097008464</v>
       </c>
       <c r="V20" t="n">
-        <v>1571.190062176653</v>
+        <v>2039.095097008464</v>
       </c>
       <c r="W20" t="n">
-        <v>1571.190062176653</v>
+        <v>2039.095097008464</v>
       </c>
       <c r="X20" t="n">
-        <v>1197.724303915573</v>
+        <v>2039.095097008464</v>
       </c>
       <c r="Y20" t="n">
-        <v>1180.471620197819</v>
+        <v>1648.955765032652</v>
       </c>
     </row>
     <row r="21">
@@ -5807,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>859.1382992416497</v>
+        <v>931.3030471966489</v>
       </c>
       <c r="C21" t="n">
-        <v>684.6852699605228</v>
+        <v>756.8500179155219</v>
       </c>
       <c r="D21" t="n">
-        <v>535.7508602992715</v>
+        <v>607.9156082542706</v>
       </c>
       <c r="E21" t="n">
-        <v>376.513405293816</v>
+        <v>448.6781532488151</v>
       </c>
       <c r="F21" t="n">
-        <v>229.978847320701</v>
+        <v>302.1435952757001</v>
       </c>
       <c r="G21" t="n">
-        <v>93.24576819005659</v>
+        <v>165.4105161450557</v>
       </c>
       <c r="H21" t="n">
         <v>71.3354039008882</v>
@@ -5831,22 +5831,22 @@
         <v>49.81782892870198</v>
       </c>
       <c r="J21" t="n">
-        <v>109.235802444016</v>
+        <v>234.0659274310207</v>
       </c>
       <c r="K21" t="n">
-        <v>475.7435727620233</v>
+        <v>675.596117491649</v>
       </c>
       <c r="L21" t="n">
-        <v>763.7078559446859</v>
+        <v>1078.985996898224</v>
       </c>
       <c r="M21" t="n">
-        <v>1119.105460193357</v>
+        <v>1434.383601146895</v>
       </c>
       <c r="N21" t="n">
-        <v>1498.318026423662</v>
+        <v>1813.5961673772</v>
       </c>
       <c r="O21" t="n">
-        <v>1823.003644137419</v>
+        <v>2138.281785090957</v>
       </c>
       <c r="P21" t="n">
         <v>2379.537551852666</v>
@@ -5858,25 +5858,25 @@
         <v>2490.891446435099</v>
       </c>
       <c r="S21" t="n">
-        <v>2354.581362957453</v>
+        <v>2426.746110912452</v>
       </c>
       <c r="T21" t="n">
-        <v>2160.447087779</v>
+        <v>2232.611835734</v>
       </c>
       <c r="U21" t="n">
-        <v>1932.354900192149</v>
+        <v>2004.519648147148</v>
       </c>
       <c r="V21" t="n">
-        <v>1697.202791960406</v>
+        <v>1769.367539915405</v>
       </c>
       <c r="W21" t="n">
-        <v>1442.965435232205</v>
+        <v>1515.130183187204</v>
       </c>
       <c r="X21" t="n">
-        <v>1235.113935026672</v>
+        <v>1307.278682981671</v>
       </c>
       <c r="Y21" t="n">
-        <v>1027.353636261718</v>
+        <v>1099.518384216717</v>
       </c>
     </row>
     <row r="22">
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>49.81782892870198</v>
+        <v>324.9174522430992</v>
       </c>
       <c r="C22" t="n">
-        <v>49.81782892870198</v>
+        <v>324.9174522430992</v>
       </c>
       <c r="D22" t="n">
-        <v>49.81782892870198</v>
+        <v>198.792779527604</v>
       </c>
       <c r="E22" t="n">
-        <v>49.81782892870198</v>
+        <v>198.792779527604</v>
       </c>
       <c r="F22" t="n">
-        <v>49.81782892870198</v>
+        <v>198.792779527604</v>
       </c>
       <c r="G22" t="n">
-        <v>49.81782892870198</v>
+        <v>198.792779527604</v>
       </c>
       <c r="H22" t="n">
         <v>49.81782892870198</v>
@@ -5937,25 +5937,25 @@
         <v>1609.220368204927</v>
       </c>
       <c r="S22" t="n">
-        <v>1554.91332403406</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="T22" t="n">
-        <v>1331.821402883875</v>
+        <v>1386.128447054742</v>
       </c>
       <c r="U22" t="n">
-        <v>1042.701617213097</v>
+        <v>1097.008661383964</v>
       </c>
       <c r="V22" t="n">
-        <v>788.0171290072101</v>
+        <v>842.3241731780771</v>
       </c>
       <c r="W22" t="n">
-        <v>498.5999589702494</v>
+        <v>552.9070031411165</v>
       </c>
       <c r="X22" t="n">
-        <v>270.6104080722321</v>
+        <v>324.9174522430992</v>
       </c>
       <c r="Y22" t="n">
-        <v>49.81782892870198</v>
+        <v>324.9174522430992</v>
       </c>
     </row>
     <row r="23">
@@ -5965,49 +5965,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1690.749882573629</v>
+        <v>1164.307047032374</v>
       </c>
       <c r="C23" t="n">
-        <v>1690.749882573629</v>
+        <v>795.344530091962</v>
       </c>
       <c r="D23" t="n">
-        <v>1332.484183966878</v>
+        <v>437.0788314852115</v>
       </c>
       <c r="E23" t="n">
-        <v>946.6959313686339</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="F23" t="n">
-        <v>535.7100265790262</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="G23" t="n">
-        <v>119.9460879270497</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="H23" t="n">
-        <v>119.9460879270497</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="I23" t="n">
-        <v>51.29057888696725</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="J23" t="n">
-        <v>182.6484035402486</v>
+        <v>189.7538958209947</v>
       </c>
       <c r="K23" t="n">
-        <v>430.2582499382139</v>
+        <v>437.36374221896</v>
       </c>
       <c r="L23" t="n">
-        <v>774.3419214131802</v>
+        <v>781.4474136939264</v>
       </c>
       <c r="M23" t="n">
-        <v>1188.870741198924</v>
+        <v>1195.97623347967</v>
       </c>
       <c r="N23" t="n">
-        <v>1614.720879044172</v>
+        <v>1621.826371324918</v>
       </c>
       <c r="O23" t="n">
-        <v>2003.503827275789</v>
+        <v>2010.609319556535</v>
       </c>
       <c r="P23" t="n">
-        <v>2300.820077921114</v>
+        <v>2307.92557020186</v>
       </c>
       <c r="Q23" t="n">
         <v>2483.024945800757</v>
@@ -6016,25 +6016,25 @@
         <v>2564.528944348363</v>
       </c>
       <c r="S23" t="n">
-        <v>2438.480981750686</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="T23" t="n">
-        <v>2229.476243239409</v>
+        <v>2355.524205837086</v>
       </c>
       <c r="U23" t="n">
-        <v>1975.890447433487</v>
+        <v>2355.524205837086</v>
       </c>
       <c r="V23" t="n">
-        <v>1975.890447433487</v>
+        <v>2355.524205837086</v>
       </c>
       <c r="W23" t="n">
-        <v>1690.749882573629</v>
+        <v>2314.511977333387</v>
       </c>
       <c r="X23" t="n">
-        <v>1690.749882573629</v>
+        <v>1941.046219072307</v>
       </c>
       <c r="Y23" t="n">
-        <v>1690.749882573629</v>
+        <v>1550.906887096495</v>
       </c>
     </row>
     <row r="24">
@@ -6056,37 +6056,37 @@
         <v>450.1509032070803</v>
       </c>
       <c r="F24" t="n">
-        <v>303.6163452339653</v>
+        <v>303.6163452339654</v>
       </c>
       <c r="G24" t="n">
         <v>166.883266103321</v>
       </c>
       <c r="H24" t="n">
-        <v>72.80815385915348</v>
+        <v>72.80815385915349</v>
       </c>
       <c r="I24" t="n">
-        <v>51.29057888696725</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="J24" t="n">
         <v>110.7085524022813</v>
       </c>
       <c r="K24" t="n">
-        <v>341.4045558167966</v>
+        <v>552.2387424629095</v>
       </c>
       <c r="L24" t="n">
-        <v>629.3688389994592</v>
+        <v>840.2030256455721</v>
       </c>
       <c r="M24" t="n">
-        <v>984.7664432481307</v>
+        <v>1195.600629894244</v>
       </c>
       <c r="N24" t="n">
-        <v>1363.979009478436</v>
+        <v>1574.813196124549</v>
       </c>
       <c r="O24" t="n">
-        <v>1688.664627192192</v>
+        <v>1899.498813838306</v>
       </c>
       <c r="P24" t="n">
-        <v>2245.198534907439</v>
+        <v>2245.19853490744</v>
       </c>
       <c r="Q24" t="n">
         <v>2564.528944348363</v>
@@ -6095,10 +6095,10 @@
         <v>2564.528944348363</v>
       </c>
       <c r="S24" t="n">
-        <v>2428.218860870717</v>
+        <v>2428.218860870718</v>
       </c>
       <c r="T24" t="n">
-        <v>2234.084585692264</v>
+        <v>2234.084585692265</v>
       </c>
       <c r="U24" t="n">
         <v>2005.992398105413</v>
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>51.29057888696725</v>
+        <v>467.7534321042594</v>
       </c>
       <c r="C25" t="n">
-        <v>51.29057888696725</v>
+        <v>298.8172491763526</v>
       </c>
       <c r="D25" t="n">
-        <v>51.29057888696725</v>
+        <v>298.8172491763526</v>
       </c>
       <c r="E25" t="n">
-        <v>51.29057888696725</v>
+        <v>298.8172491763526</v>
       </c>
       <c r="F25" t="n">
-        <v>51.29057888696725</v>
+        <v>298.8172491763526</v>
       </c>
       <c r="G25" t="n">
-        <v>51.29057888696725</v>
+        <v>130.8042346166712</v>
       </c>
       <c r="H25" t="n">
-        <v>51.29057888696725</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="I25" t="n">
-        <v>51.29057888696725</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="J25" t="n">
-        <v>74.92003001304158</v>
+        <v>74.9200300130416</v>
       </c>
       <c r="K25" t="n">
         <v>243.5873136073331</v>
@@ -6171,28 +6171,28 @@
         <v>1610.693118163192</v>
       </c>
       <c r="R25" t="n">
-        <v>1506.915933070317</v>
+        <v>1610.693118163192</v>
       </c>
       <c r="S25" t="n">
-        <v>1309.824493440366</v>
+        <v>1610.693118163192</v>
       </c>
       <c r="T25" t="n">
-        <v>1086.732572290181</v>
+        <v>1387.601197013007</v>
       </c>
       <c r="U25" t="n">
-        <v>1086.732572290181</v>
+        <v>1387.601197013007</v>
       </c>
       <c r="V25" t="n">
-        <v>971.1383437957149</v>
+        <v>1387.601197013007</v>
       </c>
       <c r="W25" t="n">
-        <v>681.7211737587544</v>
+        <v>1098.184026976047</v>
       </c>
       <c r="X25" t="n">
-        <v>453.731622860737</v>
+        <v>870.1944760780293</v>
       </c>
       <c r="Y25" t="n">
-        <v>232.939043717207</v>
+        <v>649.4018969344992</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1164.307047032374</v>
+        <v>1253.645847667677</v>
       </c>
       <c r="C26" t="n">
-        <v>795.344530091962</v>
+        <v>1253.645847667677</v>
       </c>
       <c r="D26" t="n">
-        <v>437.0788314852115</v>
+        <v>1253.645847667677</v>
       </c>
       <c r="E26" t="n">
-        <v>51.29057888696726</v>
+        <v>867.8575950694326</v>
       </c>
       <c r="F26" t="n">
-        <v>51.29057888696726</v>
+        <v>456.871690279825</v>
       </c>
       <c r="G26" t="n">
         <v>51.29057888696726</v>
@@ -6253,25 +6253,25 @@
         <v>2564.528944348363</v>
       </c>
       <c r="S26" t="n">
-        <v>2438.480981750686</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="T26" t="n">
-        <v>2438.480981750686</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="U26" t="n">
-        <v>2438.480981750686</v>
+        <v>2310.943148542442</v>
       </c>
       <c r="V26" t="n">
-        <v>2277.141300627689</v>
+        <v>1979.880261198871</v>
       </c>
       <c r="W26" t="n">
-        <v>1924.372645357575</v>
+        <v>1627.111605928757</v>
       </c>
       <c r="X26" t="n">
-        <v>1550.906887096495</v>
+        <v>1253.645847667677</v>
       </c>
       <c r="Y26" t="n">
-        <v>1550.906887096495</v>
+        <v>1253.645847667677</v>
       </c>
     </row>
     <row r="27">
@@ -6287,13 +6287,13 @@
         <v>758.322767873787</v>
       </c>
       <c r="D27" t="n">
-        <v>609.3883582125356</v>
+        <v>609.3883582125358</v>
       </c>
       <c r="E27" t="n">
-        <v>450.1509032070801</v>
+        <v>450.1509032070803</v>
       </c>
       <c r="F27" t="n">
-        <v>303.6163452339651</v>
+        <v>303.6163452339654</v>
       </c>
       <c r="G27" t="n">
         <v>166.883266103321</v>
@@ -6305,28 +6305,28 @@
         <v>51.29057888696726</v>
       </c>
       <c r="J27" t="n">
-        <v>110.7085524022813</v>
+        <v>235.538677389286</v>
       </c>
       <c r="K27" t="n">
-        <v>341.404555816797</v>
+        <v>634.2717485637555</v>
       </c>
       <c r="L27" t="n">
-        <v>629.3688389994596</v>
+        <v>922.2360317464181</v>
       </c>
       <c r="M27" t="n">
-        <v>984.7664432481312</v>
+        <v>1277.63363599509</v>
       </c>
       <c r="N27" t="n">
-        <v>1363.979009478436</v>
+        <v>1656.846202225395</v>
       </c>
       <c r="O27" t="n">
-        <v>1688.664627192193</v>
+        <v>1981.531819939152</v>
       </c>
       <c r="P27" t="n">
-        <v>2245.19853490744</v>
+        <v>2222.787586700861</v>
       </c>
       <c r="Q27" t="n">
-        <v>2564.528944348363</v>
+        <v>2542.117996141784</v>
       </c>
       <c r="R27" t="n">
         <v>2564.528944348363</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>833.1594568671948</v>
+        <v>368.1398553972673</v>
       </c>
       <c r="C28" t="n">
-        <v>664.2232739392879</v>
+        <v>199.2036724693604</v>
       </c>
       <c r="D28" t="n">
-        <v>514.1066345269521</v>
+        <v>199.2036724693604</v>
       </c>
       <c r="E28" t="n">
-        <v>366.193540944559</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="F28" t="n">
-        <v>219.3035934466487</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="G28" t="n">
         <v>51.29057888696726</v>
@@ -6414,22 +6414,22 @@
         <v>1610.693118163192</v>
       </c>
       <c r="T28" t="n">
-        <v>1490.284989046851</v>
+        <v>1387.601197013007</v>
       </c>
       <c r="U28" t="n">
-        <v>1490.284989046851</v>
+        <v>1098.481411342229</v>
       </c>
       <c r="V28" t="n">
-        <v>1235.600500840965</v>
+        <v>843.7969231363421</v>
       </c>
       <c r="W28" t="n">
-        <v>1235.600500840965</v>
+        <v>596.1294062952846</v>
       </c>
       <c r="X28" t="n">
-        <v>1235.600500840965</v>
+        <v>368.1398553972673</v>
       </c>
       <c r="Y28" t="n">
-        <v>1014.807921697434</v>
+        <v>368.1398553972673</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1451.694690753047</v>
+        <v>1099.968415929362</v>
       </c>
       <c r="C29" t="n">
-        <v>1206.33043488157</v>
+        <v>1099.968415929362</v>
       </c>
       <c r="D29" t="n">
-        <v>848.0647362748191</v>
+        <v>1099.968415929362</v>
       </c>
       <c r="E29" t="n">
-        <v>462.2764836765748</v>
+        <v>1099.968415929362</v>
       </c>
       <c r="F29" t="n">
-        <v>51.29057888696726</v>
+        <v>688.982511139754</v>
       </c>
       <c r="G29" t="n">
-        <v>51.29057888696726</v>
+        <v>273.2185724877775</v>
       </c>
       <c r="H29" t="n">
         <v>51.29057888696726</v>
@@ -6481,34 +6481,34 @@
         <v>2003.503827275789</v>
       </c>
       <c r="P29" t="n">
-        <v>2372.984825876113</v>
+        <v>2300.820077921114</v>
       </c>
       <c r="Q29" t="n">
-        <v>2548.08420147501</v>
+        <v>2483.024945800757</v>
       </c>
       <c r="R29" t="n">
         <v>2564.528944348363</v>
       </c>
       <c r="S29" t="n">
-        <v>2564.528944348363</v>
+        <v>2438.480981750686</v>
       </c>
       <c r="T29" t="n">
-        <v>2564.528944348363</v>
+        <v>2229.476243239409</v>
       </c>
       <c r="U29" t="n">
-        <v>2564.528944348363</v>
+        <v>2229.476243239409</v>
       </c>
       <c r="V29" t="n">
-        <v>2564.528944348363</v>
+        <v>2229.476243239409</v>
       </c>
       <c r="W29" t="n">
-        <v>2211.760289078249</v>
+        <v>1876.707587969295</v>
       </c>
       <c r="X29" t="n">
-        <v>1838.294530817169</v>
+        <v>1876.707587969295</v>
       </c>
       <c r="Y29" t="n">
-        <v>1838.294530817169</v>
+        <v>1486.568255993483</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>932.775797154914</v>
+        <v>932.7757971549145</v>
       </c>
       <c r="C30" t="n">
-        <v>758.322767873787</v>
+        <v>758.3227678737875</v>
       </c>
       <c r="D30" t="n">
-        <v>609.3883582125356</v>
+        <v>609.3883582125361</v>
       </c>
       <c r="E30" t="n">
-        <v>450.1509032070801</v>
+        <v>450.1509032070805</v>
       </c>
       <c r="F30" t="n">
-        <v>303.6163452339651</v>
+        <v>303.6163452339656</v>
       </c>
       <c r="G30" t="n">
         <v>166.8832661033211</v>
       </c>
       <c r="H30" t="n">
-        <v>72.80815385915366</v>
+        <v>72.80815385915349</v>
       </c>
       <c r="I30" t="n">
         <v>51.29057888696726</v>
@@ -6545,25 +6545,25 @@
         <v>235.538677389286</v>
       </c>
       <c r="K30" t="n">
-        <v>656.6826967703347</v>
+        <v>634.2717485637555</v>
       </c>
       <c r="L30" t="n">
-        <v>944.6469799529973</v>
+        <v>922.2360317464181</v>
       </c>
       <c r="M30" t="n">
-        <v>1300.044584201669</v>
+        <v>1277.63363599509</v>
       </c>
       <c r="N30" t="n">
-        <v>1679.257150431974</v>
+        <v>1656.846202225395</v>
       </c>
       <c r="O30" t="n">
-        <v>2003.942768145731</v>
+        <v>1981.531819939152</v>
       </c>
       <c r="P30" t="n">
-        <v>2245.19853490744</v>
+        <v>2222.787586700861</v>
       </c>
       <c r="Q30" t="n">
-        <v>2564.528944348363</v>
+        <v>2542.117996141784</v>
       </c>
       <c r="R30" t="n">
         <v>2564.528944348363</v>
@@ -6578,7 +6578,7 @@
         <v>2005.992398105413</v>
       </c>
       <c r="V30" t="n">
-        <v>1770.84028987367</v>
+        <v>1770.840289873671</v>
       </c>
       <c r="W30" t="n">
         <v>1516.602933145469</v>
@@ -6587,7 +6587,7 @@
         <v>1308.751432939936</v>
       </c>
       <c r="Y30" t="n">
-        <v>1100.991134174982</v>
+        <v>1100.991134174983</v>
       </c>
     </row>
     <row r="31">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>253.5111283765555</v>
+        <v>280.206065684425</v>
       </c>
       <c r="C31" t="n">
-        <v>253.5111283765555</v>
+        <v>280.206065684425</v>
       </c>
       <c r="D31" t="n">
-        <v>253.5111283765555</v>
+        <v>280.206065684425</v>
       </c>
       <c r="E31" t="n">
-        <v>200.2655294858693</v>
+        <v>280.206065684425</v>
       </c>
       <c r="F31" t="n">
-        <v>200.2655294858693</v>
+        <v>219.3035934466487</v>
       </c>
       <c r="G31" t="n">
-        <v>200.2655294858693</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="H31" t="n">
         <v>51.29057888696726</v>
@@ -6657,16 +6657,16 @@
         <v>797.612786619403</v>
       </c>
       <c r="V31" t="n">
-        <v>542.9282984135161</v>
+        <v>797.612786619403</v>
       </c>
       <c r="W31" t="n">
-        <v>253.5111283765555</v>
+        <v>508.1956165824424</v>
       </c>
       <c r="X31" t="n">
-        <v>253.5111283765555</v>
+        <v>280.206065684425</v>
       </c>
       <c r="Y31" t="n">
-        <v>253.5111283765555</v>
+        <v>280.206065684425</v>
       </c>
     </row>
     <row r="32">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1622.094373533546</v>
+        <v>1221.8052870776</v>
       </c>
       <c r="C32" t="n">
-        <v>1622.094373533546</v>
+        <v>852.8427701371879</v>
       </c>
       <c r="D32" t="n">
-        <v>1263.828674926796</v>
+        <v>852.8427701371879</v>
       </c>
       <c r="E32" t="n">
-        <v>878.0404223285514</v>
+        <v>467.0545175389437</v>
       </c>
       <c r="F32" t="n">
         <v>467.0545175389437</v>
@@ -6712,40 +6712,40 @@
         <v>1188.870741198924</v>
       </c>
       <c r="N32" t="n">
-        <v>1686.885626999171</v>
+        <v>1614.720879044172</v>
       </c>
       <c r="O32" t="n">
-        <v>2075.668575230788</v>
+        <v>2003.503827275789</v>
       </c>
       <c r="P32" t="n">
-        <v>2372.984825876113</v>
+        <v>2300.820077921114</v>
       </c>
       <c r="Q32" t="n">
-        <v>2548.08420147501</v>
+        <v>2483.024945800757</v>
       </c>
       <c r="R32" t="n">
         <v>2564.528944348363</v>
       </c>
       <c r="S32" t="n">
-        <v>2564.528944348363</v>
+        <v>2438.480981750686</v>
       </c>
       <c r="T32" t="n">
-        <v>2355.524205837086</v>
+        <v>2438.480981750686</v>
       </c>
       <c r="U32" t="n">
-        <v>2355.524205837086</v>
+        <v>2438.480981750686</v>
       </c>
       <c r="V32" t="n">
-        <v>2355.524205837086</v>
+        <v>2438.480981750686</v>
       </c>
       <c r="W32" t="n">
-        <v>2355.524205837086</v>
+        <v>2372.010217378613</v>
       </c>
       <c r="X32" t="n">
-        <v>2355.524205837086</v>
+        <v>1998.544459117533</v>
       </c>
       <c r="Y32" t="n">
-        <v>1965.384873861274</v>
+        <v>1608.405127141721</v>
       </c>
     </row>
     <row r="33">
@@ -6773,28 +6773,28 @@
         <v>166.8832661033209</v>
       </c>
       <c r="H33" t="n">
-        <v>72.80815385915349</v>
+        <v>72.80815385915338</v>
       </c>
       <c r="I33" t="n">
         <v>51.29057888696726</v>
       </c>
       <c r="J33" t="n">
-        <v>110.7085524022813</v>
+        <v>215.1525067097065</v>
       </c>
       <c r="K33" t="n">
-        <v>341.404555816797</v>
+        <v>656.6826967703347</v>
       </c>
       <c r="L33" t="n">
-        <v>629.3688389994596</v>
+        <v>944.6469799529973</v>
       </c>
       <c r="M33" t="n">
-        <v>984.7664432481312</v>
+        <v>1300.044584201669</v>
       </c>
       <c r="N33" t="n">
-        <v>1363.979009478436</v>
+        <v>1679.257150431974</v>
       </c>
       <c r="O33" t="n">
-        <v>1688.664627192193</v>
+        <v>2003.942768145731</v>
       </c>
       <c r="P33" t="n">
         <v>2245.19853490744</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>538.3564157868913</v>
+        <v>199.2036724693604</v>
       </c>
       <c r="C34" t="n">
-        <v>369.4202328589844</v>
+        <v>199.2036724693604</v>
       </c>
       <c r="D34" t="n">
-        <v>219.3035934466487</v>
+        <v>199.2036724693604</v>
       </c>
       <c r="E34" t="n">
-        <v>219.3035934466487</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="F34" t="n">
-        <v>219.3035934466487</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="G34" t="n">
         <v>51.29057888696726</v>
@@ -6882,28 +6882,28 @@
         <v>1610.693118163192</v>
       </c>
       <c r="R34" t="n">
-        <v>1610.693118163192</v>
+        <v>1506.915933070317</v>
       </c>
       <c r="S34" t="n">
-        <v>1610.693118163192</v>
+        <v>1309.824493440366</v>
       </c>
       <c r="T34" t="n">
-        <v>1610.693118163192</v>
+        <v>1086.732572290181</v>
       </c>
       <c r="U34" t="n">
-        <v>1531.240204071286</v>
+        <v>797.612786619403</v>
       </c>
       <c r="V34" t="n">
-        <v>1276.555715865399</v>
+        <v>542.9282984135161</v>
       </c>
       <c r="W34" t="n">
-        <v>987.1385458284387</v>
+        <v>253.5111283765555</v>
       </c>
       <c r="X34" t="n">
-        <v>759.1489949304214</v>
+        <v>253.5111283765555</v>
       </c>
       <c r="Y34" t="n">
-        <v>538.3564157868913</v>
+        <v>253.5111283765555</v>
       </c>
     </row>
     <row r="35">
@@ -6913,31 +6913,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1467.499604034966</v>
+        <v>1714.152274395165</v>
       </c>
       <c r="C35" t="n">
-        <v>1098.537087094554</v>
+        <v>1345.189757454754</v>
       </c>
       <c r="D35" t="n">
-        <v>740.2713884878037</v>
+        <v>986.9240588480031</v>
       </c>
       <c r="E35" t="n">
-        <v>354.4831358895594</v>
+        <v>945.2231814103684</v>
       </c>
       <c r="F35" t="n">
-        <v>354.4831358895594</v>
+        <v>534.2372766207609</v>
       </c>
       <c r="G35" t="n">
-        <v>354.4831358895594</v>
+        <v>118.4733379687844</v>
       </c>
       <c r="H35" t="n">
-        <v>49.81782892870198</v>
+        <v>118.4733379687844</v>
       </c>
       <c r="I35" t="n">
         <v>49.81782892870198</v>
       </c>
       <c r="J35" t="n">
-        <v>181.1756535819834</v>
+        <v>181.1756535819833</v>
       </c>
       <c r="K35" t="n">
         <v>428.7854999799487</v>
@@ -6946,13 +6946,13 @@
         <v>772.869171454915</v>
       </c>
       <c r="M35" t="n">
-        <v>1187.397991240658</v>
+        <v>1187.397991240659</v>
       </c>
       <c r="N35" t="n">
         <v>1613.248129085907</v>
       </c>
       <c r="O35" t="n">
-        <v>2002.031077317523</v>
+        <v>2002.031077317524</v>
       </c>
       <c r="P35" t="n">
         <v>2299.347327962849</v>
@@ -6964,25 +6964,25 @@
         <v>2490.891446435099</v>
       </c>
       <c r="S35" t="n">
-        <v>2364.843483837422</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="T35" t="n">
-        <v>2364.843483837422</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="U35" t="n">
-        <v>2364.843483837422</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="V35" t="n">
-        <v>2364.843483837422</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="W35" t="n">
-        <v>2364.843483837422</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="X35" t="n">
-        <v>1991.377725576342</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="Y35" t="n">
-        <v>1854.099444099088</v>
+        <v>2100.752114459287</v>
       </c>
     </row>
     <row r="36">
@@ -7016,28 +7016,28 @@
         <v>49.81782892870198</v>
       </c>
       <c r="J36" t="n">
-        <v>234.0659274310207</v>
+        <v>141.5150087964422</v>
       </c>
       <c r="K36" t="n">
-        <v>675.596117491649</v>
+        <v>583.0451988570704</v>
       </c>
       <c r="L36" t="n">
-        <v>1056.575048691644</v>
+        <v>871.009482039733</v>
       </c>
       <c r="M36" t="n">
-        <v>1411.972652940316</v>
+        <v>1226.407086288405</v>
       </c>
       <c r="N36" t="n">
-        <v>1791.185219170621</v>
+        <v>1605.619652518709</v>
       </c>
       <c r="O36" t="n">
-        <v>2115.870836884378</v>
+        <v>1930.305270232466</v>
       </c>
       <c r="P36" t="n">
-        <v>2357.126603646087</v>
+        <v>2171.561036994176</v>
       </c>
       <c r="Q36" t="n">
-        <v>2468.48049822852</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="R36" t="n">
         <v>2490.891446435099</v>
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>49.81782892870198</v>
+        <v>145.5683294195137</v>
       </c>
       <c r="C37" t="n">
         <v>49.81782892870198</v>
@@ -7122,25 +7122,25 @@
         <v>1609.220368204927</v>
       </c>
       <c r="S37" t="n">
-        <v>1554.91332403406</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="T37" t="n">
-        <v>1331.821402883875</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="U37" t="n">
-        <v>1042.701617213097</v>
+        <v>1320.100582534149</v>
       </c>
       <c r="V37" t="n">
-        <v>788.0171290072101</v>
+        <v>1065.416094328262</v>
       </c>
       <c r="W37" t="n">
-        <v>498.5999589702494</v>
+        <v>775.9989242913009</v>
       </c>
       <c r="X37" t="n">
-        <v>270.6104080722321</v>
+        <v>548.0093733932836</v>
       </c>
       <c r="Y37" t="n">
-        <v>49.81782892870198</v>
+        <v>327.2167942497534</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1218.421406906539</v>
+        <v>1262.35592496853</v>
       </c>
       <c r="C38" t="n">
-        <v>849.4588899661269</v>
+        <v>1262.35592496853</v>
       </c>
       <c r="D38" t="n">
-        <v>491.1931913593764</v>
+        <v>1262.35592496853</v>
       </c>
       <c r="E38" t="n">
-        <v>491.1931913593764</v>
+        <v>876.5676723702861</v>
       </c>
       <c r="F38" t="n">
-        <v>80.20728656976883</v>
+        <v>465.5817675806785</v>
       </c>
       <c r="G38" t="n">
         <v>49.81782892870198</v>
@@ -7183,16 +7183,16 @@
         <v>772.869171454915</v>
       </c>
       <c r="M38" t="n">
-        <v>1187.397991240659</v>
+        <v>1187.397991240658</v>
       </c>
       <c r="N38" t="n">
         <v>1613.248129085907</v>
       </c>
       <c r="O38" t="n">
-        <v>2002.031077317524</v>
+        <v>2002.031077317523</v>
       </c>
       <c r="P38" t="n">
-        <v>2299.347327962849</v>
+        <v>2299.347327962848</v>
       </c>
       <c r="Q38" t="n">
         <v>2474.446703561746</v>
@@ -7204,22 +7204,22 @@
         <v>2364.843483837422</v>
       </c>
       <c r="T38" t="n">
-        <v>2155.838745326145</v>
+        <v>2364.843483837422</v>
       </c>
       <c r="U38" t="n">
-        <v>1902.252949520223</v>
+        <v>2364.843483837422</v>
       </c>
       <c r="V38" t="n">
-        <v>1571.190062176653</v>
+        <v>2033.780596493851</v>
       </c>
       <c r="W38" t="n">
-        <v>1218.421406906539</v>
+        <v>2033.780596493851</v>
       </c>
       <c r="X38" t="n">
-        <v>1218.421406906539</v>
+        <v>2033.780596493851</v>
       </c>
       <c r="Y38" t="n">
-        <v>1218.421406906539</v>
+        <v>1648.955765032652</v>
       </c>
     </row>
     <row r="39">
@@ -7229,10 +7229,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>931.3030471966489</v>
+        <v>859.1382992416497</v>
       </c>
       <c r="C39" t="n">
-        <v>756.8500179155219</v>
+        <v>684.6852699605228</v>
       </c>
       <c r="D39" t="n">
         <v>607.9156082542706</v>
@@ -7253,28 +7253,28 @@
         <v>49.81782892870198</v>
       </c>
       <c r="J39" t="n">
-        <v>234.0659274310207</v>
+        <v>119.104060589863</v>
       </c>
       <c r="K39" t="n">
-        <v>499.2116984366309</v>
+        <v>560.6342506504913</v>
       </c>
       <c r="L39" t="n">
-        <v>787.1759816192935</v>
+        <v>848.5985338331539</v>
       </c>
       <c r="M39" t="n">
-        <v>1142.573585867965</v>
+        <v>1203.996138081825</v>
       </c>
       <c r="N39" t="n">
-        <v>1521.78615209827</v>
+        <v>1583.20870431213</v>
       </c>
       <c r="O39" t="n">
-        <v>2138.281785090957</v>
+        <v>1907.894322025887</v>
       </c>
       <c r="P39" t="n">
-        <v>2379.537551852666</v>
+        <v>2149.150088787596</v>
       </c>
       <c r="Q39" t="n">
-        <v>2490.891446435099</v>
+        <v>2468.48049822852</v>
       </c>
       <c r="R39" t="n">
         <v>2490.891446435099</v>
@@ -7286,19 +7286,19 @@
         <v>2160.447087779</v>
       </c>
       <c r="U39" t="n">
-        <v>2004.519648147148</v>
+        <v>1932.354900192149</v>
       </c>
       <c r="V39" t="n">
-        <v>1769.367539915405</v>
+        <v>1697.202791960406</v>
       </c>
       <c r="W39" t="n">
-        <v>1515.130183187204</v>
+        <v>1442.965435232205</v>
       </c>
       <c r="X39" t="n">
-        <v>1307.278682981671</v>
+        <v>1235.113935026672</v>
       </c>
       <c r="Y39" t="n">
-        <v>1099.518384216717</v>
+        <v>1027.353636261718</v>
       </c>
     </row>
     <row r="40">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1218.421406906544</v>
+        <v>1262.35592496853</v>
       </c>
       <c r="C41" t="n">
-        <v>1218.421406906544</v>
+        <v>1262.35592496853</v>
       </c>
       <c r="D41" t="n">
-        <v>860.1557082997936</v>
+        <v>1262.35592496853</v>
       </c>
       <c r="E41" t="n">
-        <v>474.3674557015493</v>
+        <v>876.5676723702861</v>
       </c>
       <c r="F41" t="n">
-        <v>474.3674557015493</v>
+        <v>465.5817675806785</v>
       </c>
       <c r="G41" t="n">
-        <v>58.60351704957282</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="H41" t="n">
-        <v>58.60351704957282</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="I41" t="n">
-        <v>49.81782892870208</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J41" t="n">
-        <v>181.1756535819834</v>
+        <v>181.1756535819831</v>
       </c>
       <c r="K41" t="n">
-        <v>428.7854999799488</v>
+        <v>428.7854999799484</v>
       </c>
       <c r="L41" t="n">
-        <v>772.8691714549152</v>
+        <v>772.8691714549147</v>
       </c>
       <c r="M41" t="n">
-        <v>1187.397991240659</v>
+        <v>1187.397991240658</v>
       </c>
       <c r="N41" t="n">
         <v>1613.248129085907</v>
       </c>
       <c r="O41" t="n">
-        <v>2002.031077317524</v>
+        <v>2002.031077317523</v>
       </c>
       <c r="P41" t="n">
-        <v>2299.347327962849</v>
+        <v>2299.347327962848</v>
       </c>
       <c r="Q41" t="n">
-        <v>2474.446703561747</v>
+        <v>2474.446703561746</v>
       </c>
       <c r="R41" t="n">
-        <v>2490.891446435104</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="S41" t="n">
-        <v>2364.843483837427</v>
+        <v>2412.560855269544</v>
       </c>
       <c r="T41" t="n">
-        <v>2155.83874532615</v>
+        <v>2412.560855269544</v>
       </c>
       <c r="U41" t="n">
-        <v>1902.252949520229</v>
+        <v>2412.560855269544</v>
       </c>
       <c r="V41" t="n">
-        <v>1571.190062176658</v>
+        <v>2412.560855269544</v>
       </c>
       <c r="W41" t="n">
-        <v>1218.421406906544</v>
+        <v>2412.560855269544</v>
       </c>
       <c r="X41" t="n">
-        <v>1218.421406906544</v>
+        <v>2039.095097008464</v>
       </c>
       <c r="Y41" t="n">
-        <v>1218.421406906544</v>
+        <v>1648.955765032652</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>931.3030471966489</v>
+        <v>859.1382992416497</v>
       </c>
       <c r="C42" t="n">
-        <v>756.8500179155219</v>
+        <v>684.6852699605228</v>
       </c>
       <c r="D42" t="n">
-        <v>607.9156082542706</v>
+        <v>535.7508602992715</v>
       </c>
       <c r="E42" t="n">
-        <v>448.6781532488152</v>
+        <v>376.513405293816</v>
       </c>
       <c r="F42" t="n">
-        <v>302.1435952757002</v>
+        <v>229.978847320701</v>
       </c>
       <c r="G42" t="n">
-        <v>165.4105161450558</v>
+        <v>93.24576819005659</v>
       </c>
       <c r="H42" t="n">
-        <v>71.33540390088831</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="I42" t="n">
-        <v>49.81782892870208</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J42" t="n">
-        <v>109.2358024440161</v>
+        <v>141.5150087964422</v>
       </c>
       <c r="K42" t="n">
-        <v>462.4903639055409</v>
+        <v>583.0451988570704</v>
       </c>
       <c r="L42" t="n">
-        <v>1078.985996898229</v>
+        <v>871.009482039733</v>
       </c>
       <c r="M42" t="n">
-        <v>1434.383601146901</v>
+        <v>1226.407086288405</v>
       </c>
       <c r="N42" t="n">
-        <v>1813.596167377205</v>
+        <v>1605.619652518709</v>
       </c>
       <c r="O42" t="n">
-        <v>2138.281785090962</v>
+        <v>1930.305270232466</v>
       </c>
       <c r="P42" t="n">
-        <v>2379.537551852672</v>
+        <v>2171.561036994176</v>
       </c>
       <c r="Q42" t="n">
-        <v>2490.891446435104</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="R42" t="n">
-        <v>2490.891446435104</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="S42" t="n">
-        <v>2354.581362957459</v>
+        <v>2354.581362957453</v>
       </c>
       <c r="T42" t="n">
-        <v>2160.447087779006</v>
+        <v>2160.447087779</v>
       </c>
       <c r="U42" t="n">
-        <v>1932.354900192154</v>
+        <v>1932.354900192149</v>
       </c>
       <c r="V42" t="n">
-        <v>1697.202791960412</v>
+        <v>1697.202791960406</v>
       </c>
       <c r="W42" t="n">
-        <v>1442.96543523221</v>
+        <v>1442.965435232205</v>
       </c>
       <c r="X42" t="n">
-        <v>1235.113935026677</v>
+        <v>1235.113935026672</v>
       </c>
       <c r="Y42" t="n">
-        <v>1027.353636261723</v>
+        <v>1027.353636261718</v>
       </c>
     </row>
     <row r="43">
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>831.6867069089296</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="C43" t="n">
-        <v>662.7505239810228</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="D43" t="n">
-        <v>512.633884568687</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="E43" t="n">
-        <v>364.7207909862939</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="F43" t="n">
-        <v>217.8308434883835</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="G43" t="n">
-        <v>49.81782892870208</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="H43" t="n">
-        <v>49.81782892870208</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="I43" t="n">
-        <v>49.81782892870208</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J43" t="n">
-        <v>73.44728005477641</v>
+        <v>73.44728005477631</v>
       </c>
       <c r="K43" t="n">
-        <v>242.1145636490679</v>
+        <v>242.1145636490678</v>
       </c>
       <c r="L43" t="n">
         <v>513.4770511394356</v>
@@ -7599,22 +7599,22 @@
         <v>1609.220368204927</v>
       </c>
       <c r="T43" t="n">
-        <v>1609.220368204927</v>
+        <v>1513.469867714115</v>
       </c>
       <c r="U43" t="n">
-        <v>1603.777916049795</v>
+        <v>1224.350082043337</v>
       </c>
       <c r="V43" t="n">
-        <v>1349.093427843908</v>
+        <v>969.6655938374497</v>
       </c>
       <c r="W43" t="n">
-        <v>1059.676257806947</v>
+        <v>680.2484238004891</v>
       </c>
       <c r="X43" t="n">
-        <v>831.6867069089296</v>
+        <v>452.2588729024718</v>
       </c>
       <c r="Y43" t="n">
-        <v>831.6867069089296</v>
+        <v>231.4662937589417</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>831.8215668424223</v>
+        <v>1214.638553536409</v>
       </c>
       <c r="C44" t="n">
-        <v>831.8215668424223</v>
+        <v>1214.638553536409</v>
       </c>
       <c r="D44" t="n">
-        <v>473.5558682356718</v>
+        <v>1214.638553536409</v>
       </c>
       <c r="E44" t="n">
-        <v>473.5558682356718</v>
+        <v>876.5676723702861</v>
       </c>
       <c r="F44" t="n">
-        <v>354.4831358895595</v>
+        <v>465.5817675806785</v>
       </c>
       <c r="G44" t="n">
-        <v>354.4831358895595</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="H44" t="n">
-        <v>49.81782892870208</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="I44" t="n">
-        <v>49.81782892870208</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J44" t="n">
-        <v>181.1756535819885</v>
+        <v>181.175653581983</v>
       </c>
       <c r="K44" t="n">
-        <v>428.7854999799538</v>
+        <v>428.7854999799483</v>
       </c>
       <c r="L44" t="n">
-        <v>772.8691714549202</v>
+        <v>772.8691714549145</v>
       </c>
       <c r="M44" t="n">
-        <v>1187.397991240664</v>
+        <v>1187.397991240658</v>
       </c>
       <c r="N44" t="n">
-        <v>1613.248129085912</v>
+        <v>1613.248129085906</v>
       </c>
       <c r="O44" t="n">
-        <v>2002.031077317529</v>
+        <v>2002.031077317523</v>
       </c>
       <c r="P44" t="n">
-        <v>2299.347327962854</v>
+        <v>2299.347327962849</v>
       </c>
       <c r="Q44" t="n">
-        <v>2474.446703561751</v>
+        <v>2474.446703561746</v>
       </c>
       <c r="R44" t="n">
-        <v>2490.891446435104</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="S44" t="n">
-        <v>2364.843483837427</v>
+        <v>2364.843483837422</v>
       </c>
       <c r="T44" t="n">
-        <v>2155.83874532615</v>
+        <v>2364.843483837422</v>
       </c>
       <c r="U44" t="n">
-        <v>1902.252949520229</v>
+        <v>2364.843483837422</v>
       </c>
       <c r="V44" t="n">
-        <v>1571.190062176658</v>
+        <v>2364.843483837422</v>
       </c>
       <c r="W44" t="n">
-        <v>1218.421406906544</v>
+        <v>2364.843483837422</v>
       </c>
       <c r="X44" t="n">
-        <v>1218.421406906544</v>
+        <v>1991.377725576342</v>
       </c>
       <c r="Y44" t="n">
-        <v>1218.421406906544</v>
+        <v>1601.23839360053</v>
       </c>
     </row>
     <row r="45">
@@ -7703,7 +7703,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>931.3030471966489</v>
+        <v>859.1382992416497</v>
       </c>
       <c r="C45" t="n">
         <v>756.8500179155219</v>
@@ -7712,67 +7712,67 @@
         <v>607.9156082542706</v>
       </c>
       <c r="E45" t="n">
-        <v>448.6781532488152</v>
+        <v>448.6781532488151</v>
       </c>
       <c r="F45" t="n">
-        <v>302.1435952757002</v>
+        <v>302.1435952757001</v>
       </c>
       <c r="G45" t="n">
-        <v>165.4105161450558</v>
+        <v>165.4105161450557</v>
       </c>
       <c r="H45" t="n">
-        <v>71.33540390088831</v>
+        <v>71.3354039008882</v>
       </c>
       <c r="I45" t="n">
-        <v>49.81782892870208</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J45" t="n">
-        <v>234.0659274310208</v>
+        <v>234.0659274310207</v>
       </c>
       <c r="K45" t="n">
-        <v>583.0451988570759</v>
+        <v>560.6342506504913</v>
       </c>
       <c r="L45" t="n">
-        <v>871.0094820397385</v>
+        <v>848.5985338331539</v>
       </c>
       <c r="M45" t="n">
-        <v>1226.40708628841</v>
+        <v>1203.996138081825</v>
       </c>
       <c r="N45" t="n">
-        <v>1605.619652518715</v>
+        <v>1583.20870431213</v>
       </c>
       <c r="O45" t="n">
-        <v>1930.305270232472</v>
+        <v>1907.894322025887</v>
       </c>
       <c r="P45" t="n">
-        <v>2171.561036994181</v>
+        <v>2149.150088787596</v>
       </c>
       <c r="Q45" t="n">
-        <v>2490.891446435104</v>
+        <v>2468.48049822852</v>
       </c>
       <c r="R45" t="n">
-        <v>2490.891446435104</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="S45" t="n">
-        <v>2426.746110912452</v>
+        <v>2354.581362957453</v>
       </c>
       <c r="T45" t="n">
-        <v>2232.611835734</v>
+        <v>2160.447087779</v>
       </c>
       <c r="U45" t="n">
-        <v>2004.519648147148</v>
+        <v>1932.354900192149</v>
       </c>
       <c r="V45" t="n">
-        <v>1769.367539915405</v>
+        <v>1697.202791960406</v>
       </c>
       <c r="W45" t="n">
-        <v>1515.130183187204</v>
+        <v>1442.965435232205</v>
       </c>
       <c r="X45" t="n">
-        <v>1307.278682981671</v>
+        <v>1235.113935026672</v>
       </c>
       <c r="Y45" t="n">
-        <v>1099.518384216717</v>
+        <v>1027.353636261718</v>
       </c>
     </row>
     <row r="46">
@@ -7782,34 +7782,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>575.3474575176076</v>
+        <v>368.8706512689446</v>
       </c>
       <c r="C46" t="n">
-        <v>406.4112745897007</v>
+        <v>199.9344683410377</v>
       </c>
       <c r="D46" t="n">
-        <v>256.294635177365</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="E46" t="n">
-        <v>256.294635177365</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="F46" t="n">
-        <v>256.294635177365</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="G46" t="n">
-        <v>256.294635177365</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="H46" t="n">
-        <v>156.4714025375974</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="I46" t="n">
-        <v>49.81782892870208</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J46" t="n">
-        <v>73.44728005477641</v>
+        <v>73.44728005477631</v>
       </c>
       <c r="K46" t="n">
-        <v>242.1145636490679</v>
+        <v>242.1145636490678</v>
       </c>
       <c r="L46" t="n">
         <v>513.4770511394356</v>
@@ -7836,22 +7836,22 @@
         <v>1308.351743482101</v>
       </c>
       <c r="T46" t="n">
-        <v>1085.259822331916</v>
+        <v>1175.397157874701</v>
       </c>
       <c r="U46" t="n">
-        <v>796.1400366611377</v>
+        <v>886.2773722039226</v>
       </c>
       <c r="V46" t="n">
-        <v>796.1400366611377</v>
+        <v>886.2773722039226</v>
       </c>
       <c r="W46" t="n">
-        <v>796.1400366611377</v>
+        <v>596.8602021669619</v>
       </c>
       <c r="X46" t="n">
-        <v>796.1400366611377</v>
+        <v>368.8706512689446</v>
       </c>
       <c r="Y46" t="n">
-        <v>575.3474575176076</v>
+        <v>368.8706512689446</v>
       </c>
     </row>
   </sheetData>
@@ -8771,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>148.3421391932279</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8786,10 +8786,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>39.95665828913948</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9008,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>170.9794606140161</v>
+        <v>148.3421391932285</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>22.88434839053379</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9245,10 +9245,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>331.8498482929539</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>116.5915113372859</v>
+        <v>26.56957863612269</v>
       </c>
       <c r="R18" t="n">
-        <v>22.8843483905338</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>188.6850150503352</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>116.5915113372849</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>7.177264930046533</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>7.177264930045766</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9719,7 +9719,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>51.50141211751503</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>105.4989437448739</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>51.50141211751549</v>
+        <v>221.2358239962567</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>22.8843483905338</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10129,13 +10129,13 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>72.89368480302875</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>7.177264930046221</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10193,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>243.8731454170437</v>
+        <v>221.2358239962567</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>22.8843483905338</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10360,7 +10360,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>72.89368480302898</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10369,10 +10369,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>7.177264930046221</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>105.4989437448739</v>
       </c>
       <c r="K33" t="n">
-        <v>51.50141211751549</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10664,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>32.60525894184465</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>93.95418991649785</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>22.8843483905338</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10901,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>9.967937521057607</v>
       </c>
       <c r="K39" t="n">
-        <v>86.29915715902496</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10916,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>294.7575911908383</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>22.8843483905338</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>4.742872761198669e-12</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,13 +11138,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>32.60525894184465</v>
       </c>
       <c r="K42" t="n">
-        <v>175.2979353973226</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>331.8498482929553</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>22.8843483905338</v>
@@ -11378,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>170.9794606140198</v>
+        <v>148.3421391932274</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>22.8843483905338</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>411.6062992654567</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I11" t="n">
-        <v>67.96895394968158</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T11" t="n">
         <v>206.9146911261644</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0499378478622</v>
+        <v>68.2769513649834</v>
       </c>
       <c r="V11" t="n">
-        <v>175.6641964303873</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23336,13 +23336,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>50.14070125298436</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>71.44310047544781</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -23357,7 +23357,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>21.30239922246436</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>89.10478256648288</v>
+        <v>134.6176266784487</v>
       </c>
       <c r="H13" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>105.5870378728063</v>
@@ -23466,7 +23466,7 @@
         <v>102.739413241946</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,16 +23475,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,19 +23494,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>210.7426653177587</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>411.6062992654567</v>
@@ -23515,7 +23515,7 @@
         <v>301.6186538912489</v>
       </c>
       <c r="I14" t="n">
-        <v>67.96895394968163</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23554,16 +23554,16 @@
         <v>251.0499378478622</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>80.9602336653025</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23588,7 +23588,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>71.44310047544872</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -23624,7 +23624,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>71.44310047544725</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.3328844140846</v>
+        <v>72.44670162977593</v>
       </c>
       <c r="H16" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>105.5870378728063</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>195.1205252336517</v>
@@ -23709,19 +23709,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>45.77939908667335</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23737,19 +23737,19 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>230.8023488723334</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>411.6062992654567</v>
       </c>
       <c r="H17" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>67.96895394968163</v>
@@ -23782,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>124.7874829717001</v>
+        <v>65.56711956041269</v>
       </c>
       <c r="T17" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.0499378478622</v>
@@ -23794,13 +23794,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23867,10 +23867,10 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>71.44310047544823</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>71.44310047544909</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>15.72399406211954</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>105.5870378728063</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>126.0680064527793</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23974,16 +23974,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>301.6186538912489</v>
@@ -24022,22 +24022,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>135.4737260133584</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>369.1577817754768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24065,7 +24065,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>71.44310047544911</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24098,7 +24098,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>71.44310047544909</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>23.75204702987209</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24144,7 +24144,7 @@
         <v>166.3328844140846</v>
       </c>
       <c r="H22" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>105.5870378728063</v>
@@ -24177,7 +24177,7 @@
         <v>102.739413241946</v>
       </c>
       <c r="S22" t="n">
-        <v>141.3565515044935</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24217,16 +24217,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H23" t="n">
         <v>301.6186538912489</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>66.95180950615298</v>
+        <v>308.6388624987513</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24378,10 +24378,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>147.485201092913</v>
+        <v>68.76668192050613</v>
       </c>
       <c r="I25" t="n">
         <v>105.5870378728063</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>286.2285878140705</v>
       </c>
       <c r="V25" t="n">
-        <v>137.6993571143064</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24442,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>411.6062992654567</v>
+        <v>10.0809989865275</v>
       </c>
       <c r="H26" t="n">
         <v>301.6186538912489</v>
@@ -24493,16 +24493,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T26" t="n">
         <v>206.9146911261644</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>168.0259741583681</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H28" t="n">
         <v>147.485201092913</v>
@@ -24654,22 +24654,22 @@
         <v>195.1205252336517</v>
       </c>
       <c r="T28" t="n">
-        <v>101.6569541135058</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>41.33215666394412</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24682,22 +24682,22 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>122.3622784582448</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>301.6186538912489</v>
+        <v>81.90994022644674</v>
       </c>
       <c r="I29" t="n">
         <v>67.96895394968163</v>
@@ -24730,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.0499378478622</v>
@@ -24745,10 +24745,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24846,16 +24846,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>93.72081974478979</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>85.12760050753266</v>
       </c>
       <c r="G31" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I31" t="n">
         <v>105.5870378728063</v>
@@ -24897,13 +24897,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24916,19 +24916,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>42.87624633902982</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24967,10 +24967,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U32" t="n">
         <v>251.0499378478622</v>
@@ -24979,10 +24979,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>283.4349119890607</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>126.0675988338141</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H34" t="n">
         <v>147.485201092913</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>207.570202863084</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25162,19 +25162,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>340.6465014090034</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I35" t="n">
-        <v>67.96895394968163</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T35" t="n">
         <v>206.9146911261644</v>
@@ -25219,10 +25219,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>250.3324399935717</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>72.4538256127242</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25362,10 +25362,10 @@
         <v>102.739413241946</v>
       </c>
       <c r="S37" t="n">
-        <v>141.3565515044935</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25390,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>381.5207362008005</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>301.6186538912489</v>
@@ -25444,22 +25444,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>5.261355509466625</v>
       </c>
     </row>
     <row r="39">
@@ -25475,7 +25475,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>71.44310047544916</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -25526,7 +25526,7 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>71.44310047544911</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25627,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>301.6186538912489</v>
       </c>
       <c r="I41" t="n">
-        <v>59.27112271001961</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>47.2401977178009</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25706,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>71.44310047544369</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -25724,10 +25724,10 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>50.14070125298476</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>21.30239922246436</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H43" t="n">
         <v>147.485201092913</v>
@@ -25839,10 +25839,10 @@
         <v>195.1205252336517</v>
       </c>
       <c r="T43" t="n">
-        <v>220.8610019386828</v>
+        <v>126.0680064527793</v>
       </c>
       <c r="U43" t="n">
-        <v>280.8405601804897</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25870,19 +25870,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>47.24019771780053</v>
       </c>
       <c r="F44" t="n">
-        <v>288.9940407190604</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I44" t="n">
         <v>67.96895394968163</v>
@@ -25918,22 +25918,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25946,7 +25946,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>71.44310047544919</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -25994,7 +25994,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>71.44310047544369</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>166.3328844140846</v>
       </c>
       <c r="H46" t="n">
-        <v>48.66020077954308</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>89.23596218735719</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26085,13 +26085,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>607400.5163058906</v>
+        <v>607400.5163058905</v>
       </c>
     </row>
     <row r="8">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>619678.2106644821</v>
+        <v>619678.210664482</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>607400.5163058906</v>
+        <v>607400.5163058905</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>607400.5163058914</v>
+        <v>607400.5163058905</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>607400.5163058912</v>
+        <v>607400.5163058905</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>634939.1625057048</v>
       </c>
       <c r="C2" t="n">
-        <v>634939.1625057049</v>
+        <v>634939.1625057047</v>
       </c>
       <c r="D2" t="n">
-        <v>634939.1625057047</v>
+        <v>634939.1625057048</v>
       </c>
       <c r="E2" t="n">
-        <v>466826.4754211794</v>
+        <v>466826.4754211793</v>
       </c>
       <c r="F2" t="n">
-        <v>466826.4754211794</v>
+        <v>466826.4754211793</v>
       </c>
       <c r="G2" t="n">
-        <v>466826.4754211793</v>
+        <v>466826.4754211792</v>
       </c>
       <c r="H2" t="n">
         <v>466826.4754211793</v>
       </c>
       <c r="I2" t="n">
+        <v>473581.4205711329</v>
+      </c>
+      <c r="J2" t="n">
+        <v>473581.4205711331</v>
+      </c>
+      <c r="K2" t="n">
         <v>473581.420571133</v>
-      </c>
-      <c r="J2" t="n">
-        <v>473581.4205711329</v>
-      </c>
-      <c r="K2" t="n">
-        <v>473581.4205711329</v>
       </c>
       <c r="L2" t="n">
         <v>473581.4205711329</v>
       </c>
       <c r="M2" t="n">
+        <v>466826.4754211794</v>
+      </c>
+      <c r="N2" t="n">
+        <v>466826.4754211793</v>
+      </c>
+      <c r="O2" t="n">
         <v>466826.4754211792</v>
       </c>
-      <c r="N2" t="n">
-        <v>466826.4754211792</v>
-      </c>
-      <c r="O2" t="n">
-        <v>466826.4754211798</v>
-      </c>
       <c r="P2" t="n">
-        <v>466826.4754211797</v>
+        <v>466826.4754211791</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>924651.5793761243</v>
+        <v>924651.579376124</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4895.439270648257</v>
+        <v>4895.439270648287</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26426,19 +26426,19 @@
         <v>436273.8797192482</v>
       </c>
       <c r="E4" t="n">
+        <v>20610.62669540531</v>
+      </c>
+      <c r="F4" t="n">
+        <v>20610.62669540531</v>
+      </c>
+      <c r="G4" t="n">
         <v>20610.6266954053</v>
-      </c>
-      <c r="F4" t="n">
-        <v>20610.62669540533</v>
-      </c>
-      <c r="G4" t="n">
-        <v>20610.62669540531</v>
       </c>
       <c r="H4" t="n">
         <v>20610.6266954053</v>
       </c>
       <c r="I4" t="n">
-        <v>24403.50379676127</v>
+        <v>24403.50379676131</v>
       </c>
       <c r="J4" t="n">
         <v>24403.50379676131</v>
@@ -26447,19 +26447,19 @@
         <v>24403.5037967613</v>
       </c>
       <c r="L4" t="n">
-        <v>24403.50379676131</v>
+        <v>24403.5037967613</v>
       </c>
       <c r="M4" t="n">
         <v>20610.6266954053</v>
       </c>
       <c r="N4" t="n">
+        <v>20610.6266954053</v>
+      </c>
+      <c r="O4" t="n">
+        <v>20610.6266954053</v>
+      </c>
+      <c r="P4" t="n">
         <v>20610.62669540529</v>
-      </c>
-      <c r="O4" t="n">
-        <v>20610.62669540556</v>
-      </c>
-      <c r="P4" t="n">
-        <v>20610.62669540539</v>
       </c>
     </row>
     <row r="5">
@@ -26478,19 +26478,19 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>57906.41050425675</v>
+        <v>57906.41050425673</v>
       </c>
       <c r="F5" t="n">
-        <v>57906.41050425675</v>
+        <v>57906.41050425672</v>
       </c>
       <c r="G5" t="n">
-        <v>57906.41050425674</v>
+        <v>57906.41050425672</v>
       </c>
       <c r="H5" t="n">
         <v>57906.41050425672</v>
       </c>
       <c r="I5" t="n">
-        <v>59025.70047253833</v>
+        <v>59025.70047253834</v>
       </c>
       <c r="J5" t="n">
         <v>59025.70047253834</v>
@@ -26508,10 +26508,10 @@
         <v>57906.41050425672</v>
       </c>
       <c r="O5" t="n">
-        <v>57906.4105042568</v>
+        <v>57906.41050425672</v>
       </c>
       <c r="P5" t="n">
-        <v>57906.4105042568</v>
+        <v>57906.41050425672</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>164993.5470077755</v>
+        <v>165033.2692085885</v>
       </c>
       <c r="C6" t="n">
-        <v>164993.5470077756</v>
+        <v>165033.2692085884</v>
       </c>
       <c r="D6" t="n">
-        <v>164993.5470077754</v>
+        <v>165033.2692085885</v>
       </c>
       <c r="E6" t="n">
-        <v>-541809.2668392404</v>
+        <v>-536888.8537230701</v>
       </c>
       <c r="F6" t="n">
-        <v>382842.3125368837</v>
+        <v>387762.7256530539</v>
       </c>
       <c r="G6" t="n">
-        <v>382842.312536884</v>
+        <v>387762.7256530538</v>
       </c>
       <c r="H6" t="n">
-        <v>382842.3125368837</v>
+        <v>387762.7256530539</v>
       </c>
       <c r="I6" t="n">
-        <v>380007.5528030017</v>
+        <v>384731.8546083666</v>
       </c>
       <c r="J6" t="n">
-        <v>384902.9920736498</v>
+        <v>389627.2938790151</v>
       </c>
       <c r="K6" t="n">
-        <v>384902.9920736498</v>
+        <v>389627.293879015</v>
       </c>
       <c r="L6" t="n">
-        <v>384902.9920736498</v>
+        <v>389627.2938790149</v>
       </c>
       <c r="M6" t="n">
-        <v>232244.9742900247</v>
+        <v>237165.3874061951</v>
       </c>
       <c r="N6" t="n">
-        <v>382842.3125368836</v>
+        <v>387762.7256530539</v>
       </c>
       <c r="O6" t="n">
-        <v>382842.3125368839</v>
+        <v>387762.7256530538</v>
       </c>
       <c r="P6" t="n">
-        <v>382842.312536884</v>
+        <v>387762.7256530538</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>919.4890146074877</v>
+        <v>919.4890146074873</v>
       </c>
       <c r="F3" t="n">
-        <v>919.4890146074874</v>
+        <v>919.4890146074871</v>
       </c>
       <c r="G3" t="n">
         <v>919.4890146074873</v>
@@ -26798,19 +26798,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>622.722861608775</v>
+        <v>622.7228616087748</v>
       </c>
       <c r="F4" t="n">
-        <v>622.7228616087751</v>
+        <v>622.7228616087748</v>
       </c>
       <c r="G4" t="n">
-        <v>622.7228616087749</v>
+        <v>622.7228616087747</v>
       </c>
       <c r="H4" t="n">
         <v>622.7228616087747</v>
       </c>
       <c r="I4" t="n">
-        <v>641.1322360870906</v>
+        <v>641.1322360870907</v>
       </c>
       <c r="J4" t="n">
         <v>641.1322360870907</v>
@@ -26828,10 +26828,10 @@
         <v>622.7228616087747</v>
       </c>
       <c r="O4" t="n">
-        <v>622.722861608776</v>
+        <v>622.7228616087747</v>
       </c>
       <c r="P4" t="n">
-        <v>622.722861608776</v>
+        <v>622.7228616087747</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>919.4890146074877</v>
+        <v>919.4890146074873</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,19 +27020,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>622.722861608775</v>
+        <v>622.7228616087748</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.463852773970822e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>18.40937447831595</v>
+        <v>18.40937447831607</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>604.313487130459</v>
+        <v>604.3134871304591</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>622.722861608775</v>
+        <v>622.7228616087748</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.696438249678339</v>
+        <v>3.696438249678338</v>
       </c>
       <c r="H11" t="n">
-        <v>37.85614822451831</v>
+        <v>37.85614822451829</v>
       </c>
       <c r="I11" t="n">
         <v>142.5069356207243</v>
       </c>
       <c r="J11" t="n">
-        <v>313.7305758936373</v>
+        <v>313.7305758936371</v>
       </c>
       <c r="K11" t="n">
-        <v>470.2008070025215</v>
+        <v>470.2008070025213</v>
       </c>
       <c r="L11" t="n">
-        <v>583.3256790861151</v>
+        <v>583.3256790861149</v>
       </c>
       <c r="M11" t="n">
-        <v>649.0622128088322</v>
+        <v>649.062212808832</v>
       </c>
       <c r="N11" t="n">
-        <v>659.5647179857309</v>
+        <v>659.5647179857306</v>
       </c>
       <c r="O11" t="n">
-        <v>622.8082601404918</v>
+        <v>622.8082601404916</v>
       </c>
       <c r="P11" t="n">
-        <v>531.5524408515578</v>
+        <v>531.5524408515575</v>
       </c>
       <c r="Q11" t="n">
-        <v>399.173746034952</v>
+        <v>399.1737460349519</v>
       </c>
       <c r="R11" t="n">
-        <v>232.1963892013572</v>
+        <v>232.1963892013571</v>
       </c>
       <c r="S11" t="n">
-        <v>84.23258661454524</v>
+        <v>84.23258661454521</v>
       </c>
       <c r="T11" t="n">
-        <v>16.18115843796694</v>
+        <v>16.18115843796693</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2957150599742671</v>
+        <v>0.295715059974267</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,46 +31834,46 @@
         <v>1.977768823872709</v>
       </c>
       <c r="H12" t="n">
-        <v>19.10108311477064</v>
+        <v>19.10108311477063</v>
       </c>
       <c r="I12" t="n">
-        <v>68.09423362895075</v>
+        <v>68.09423362895072</v>
       </c>
       <c r="J12" t="n">
         <v>186.8557817326405</v>
       </c>
       <c r="K12" t="n">
-        <v>319.3662929321121</v>
+        <v>319.3662929321119</v>
       </c>
       <c r="L12" t="n">
-        <v>429.4273930956951</v>
+        <v>429.427393095695</v>
       </c>
       <c r="M12" t="n">
-        <v>501.1215129610807</v>
+        <v>501.1215129610805</v>
       </c>
       <c r="N12" t="n">
-        <v>514.3847082755605</v>
+        <v>514.3847082755603</v>
       </c>
       <c r="O12" t="n">
-        <v>470.561514862381</v>
+        <v>470.5615148623808</v>
       </c>
       <c r="P12" t="n">
-        <v>377.6671011130264</v>
+        <v>377.6671011130263</v>
       </c>
       <c r="Q12" t="n">
-        <v>252.4604554824182</v>
+        <v>252.4604554824181</v>
       </c>
       <c r="R12" t="n">
         <v>122.7951555734302</v>
       </c>
       <c r="S12" t="n">
-        <v>36.73618846096894</v>
+        <v>36.73618846096893</v>
       </c>
       <c r="T12" t="n">
-        <v>7.971796268153593</v>
+        <v>7.97179626815359</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1301163699916257</v>
+        <v>0.1301163699916256</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.658094944374158</v>
+        <v>1.658094944374157</v>
       </c>
       <c r="H13" t="n">
-        <v>14.74197141452662</v>
+        <v>14.74197141452661</v>
       </c>
       <c r="I13" t="n">
-        <v>49.86343705445196</v>
+        <v>49.86343705445194</v>
       </c>
       <c r="J13" t="n">
-        <v>117.227312567253</v>
+        <v>117.2273125672529</v>
       </c>
       <c r="K13" t="n">
-        <v>192.6404853554703</v>
+        <v>192.6404853554702</v>
       </c>
       <c r="L13" t="n">
-        <v>246.5134974572271</v>
+        <v>246.513497457227</v>
       </c>
       <c r="M13" t="n">
-        <v>259.9139193258509</v>
+        <v>259.9139193258508</v>
       </c>
       <c r="N13" t="n">
         <v>253.7337472604565</v>
       </c>
       <c r="O13" t="n">
-        <v>234.3641835920856</v>
+        <v>234.3641835920855</v>
       </c>
       <c r="P13" t="n">
-        <v>200.5390467268526</v>
+        <v>200.5390467268525</v>
       </c>
       <c r="Q13" t="n">
         <v>138.8428412057306</v>
       </c>
       <c r="R13" t="n">
-        <v>74.55397813522347</v>
+        <v>74.55397813522346</v>
       </c>
       <c r="S13" t="n">
-        <v>28.89607280332054</v>
+        <v>28.89607280332053</v>
       </c>
       <c r="T13" t="n">
-        <v>7.084587489598673</v>
+        <v>7.08458748959867</v>
       </c>
       <c r="U13" t="n">
-        <v>0.09044154242040872</v>
+        <v>0.09044154242040868</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.696438249678339</v>
+        <v>3.696438249678337</v>
       </c>
       <c r="H14" t="n">
-        <v>37.85614822451829</v>
+        <v>37.85614822451828</v>
       </c>
       <c r="I14" t="n">
-        <v>142.5069356207243</v>
+        <v>142.5069356207242</v>
       </c>
       <c r="J14" t="n">
-        <v>313.7305758936372</v>
+        <v>313.7305758936371</v>
       </c>
       <c r="K14" t="n">
-        <v>470.2008070025213</v>
+        <v>470.2008070025212</v>
       </c>
       <c r="L14" t="n">
-        <v>583.325679086115</v>
+        <v>583.3256790861147</v>
       </c>
       <c r="M14" t="n">
-        <v>649.0622128088321</v>
+        <v>649.0622128088318</v>
       </c>
       <c r="N14" t="n">
-        <v>659.5647179857307</v>
+        <v>659.5647179857305</v>
       </c>
       <c r="O14" t="n">
-        <v>622.8082601404917</v>
+        <v>622.8082601404915</v>
       </c>
       <c r="P14" t="n">
-        <v>531.5524408515575</v>
+        <v>531.5524408515574</v>
       </c>
       <c r="Q14" t="n">
-        <v>399.173746034952</v>
+        <v>399.1737460349518</v>
       </c>
       <c r="R14" t="n">
         <v>232.1963892013571</v>
       </c>
       <c r="S14" t="n">
-        <v>84.23258661454523</v>
+        <v>84.2325866145452</v>
       </c>
       <c r="T14" t="n">
-        <v>16.18115843796694</v>
+        <v>16.18115843796693</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2957150599742671</v>
+        <v>0.2957150599742669</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.977768823872709</v>
+        <v>1.977768823872708</v>
       </c>
       <c r="H15" t="n">
-        <v>19.10108311477064</v>
+        <v>19.10108311477063</v>
       </c>
       <c r="I15" t="n">
-        <v>68.09423362895073</v>
+        <v>68.0942336289507</v>
       </c>
       <c r="J15" t="n">
-        <v>186.8557817326405</v>
+        <v>186.8557817326404</v>
       </c>
       <c r="K15" t="n">
-        <v>319.3662929321119</v>
+        <v>319.3662929321118</v>
       </c>
       <c r="L15" t="n">
-        <v>429.427393095695</v>
+        <v>429.4273930956949</v>
       </c>
       <c r="M15" t="n">
-        <v>501.1215129610806</v>
+        <v>501.1215129610804</v>
       </c>
       <c r="N15" t="n">
-        <v>514.3847082755603</v>
+        <v>514.3847082755602</v>
       </c>
       <c r="O15" t="n">
-        <v>470.5615148623809</v>
+        <v>470.5615148623807</v>
       </c>
       <c r="P15" t="n">
-        <v>377.6671011130263</v>
+        <v>377.6671011130262</v>
       </c>
       <c r="Q15" t="n">
-        <v>252.4604554824181</v>
+        <v>252.460455482418</v>
       </c>
       <c r="R15" t="n">
-        <v>122.7951555734302</v>
+        <v>122.7951555734301</v>
       </c>
       <c r="S15" t="n">
-        <v>36.73618846096893</v>
+        <v>36.73618846096892</v>
       </c>
       <c r="T15" t="n">
-        <v>7.971796268153591</v>
+        <v>7.971796268153589</v>
       </c>
       <c r="U15" t="n">
         <v>0.1301163699916256</v>
@@ -32153,7 +32153,7 @@
         <v>14.74197141452661</v>
       </c>
       <c r="I16" t="n">
-        <v>49.86343705445195</v>
+        <v>49.86343705445194</v>
       </c>
       <c r="J16" t="n">
         <v>117.2273125672529</v>
@@ -32162,34 +32162,34 @@
         <v>192.6404853554702</v>
       </c>
       <c r="L16" t="n">
-        <v>246.5134974572271</v>
+        <v>246.513497457227</v>
       </c>
       <c r="M16" t="n">
         <v>259.9139193258508</v>
       </c>
       <c r="N16" t="n">
-        <v>253.7337472604565</v>
+        <v>253.7337472604564</v>
       </c>
       <c r="O16" t="n">
         <v>234.3641835920855</v>
       </c>
       <c r="P16" t="n">
-        <v>200.5390467268526</v>
+        <v>200.5390467268525</v>
       </c>
       <c r="Q16" t="n">
-        <v>138.8428412057306</v>
+        <v>138.8428412057305</v>
       </c>
       <c r="R16" t="n">
-        <v>74.55397813522346</v>
+        <v>74.55397813522343</v>
       </c>
       <c r="S16" t="n">
-        <v>28.89607280332054</v>
+        <v>28.89607280332052</v>
       </c>
       <c r="T16" t="n">
-        <v>7.084587489598671</v>
+        <v>7.084587489598668</v>
       </c>
       <c r="U16" t="n">
-        <v>0.09044154242040869</v>
+        <v>0.09044154242040867</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -34131,7 +34131,7 @@
         <v>142.5069356207243</v>
       </c>
       <c r="J41" t="n">
-        <v>313.7305758936371</v>
+        <v>313.7305758936369</v>
       </c>
       <c r="K41" t="n">
         <v>470.2008070025213</v>
@@ -34368,7 +34368,7 @@
         <v>142.5069356207243</v>
       </c>
       <c r="J44" t="n">
-        <v>313.7305758936423</v>
+        <v>313.7305758936371</v>
       </c>
       <c r="K44" t="n">
         <v>470.2008070025213</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>132.684671366951</v>
+        <v>132.6846713669509</v>
       </c>
       <c r="K11" t="n">
-        <v>250.1109559575409</v>
+        <v>250.1109559575407</v>
       </c>
       <c r="L11" t="n">
-        <v>347.5592641161278</v>
+        <v>347.5592641161276</v>
       </c>
       <c r="M11" t="n">
-        <v>418.7159795815595</v>
+        <v>418.7159795815593</v>
       </c>
       <c r="N11" t="n">
-        <v>430.15165438914</v>
+        <v>430.1516543891397</v>
       </c>
       <c r="O11" t="n">
-        <v>392.7100487188051</v>
+        <v>392.7100487188048</v>
       </c>
       <c r="P11" t="n">
-        <v>300.3194450962882</v>
+        <v>300.319445096288</v>
       </c>
       <c r="Q11" t="n">
-        <v>176.8680561605026</v>
+        <v>176.8680561605024</v>
       </c>
       <c r="R11" t="n">
-        <v>16.61085138722507</v>
+        <v>16.61085138722498</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>186.1091904063827</v>
+        <v>186.1091904063826</v>
       </c>
       <c r="K12" t="n">
-        <v>181.5248539577531</v>
+        <v>329.8669931509808</v>
       </c>
       <c r="L12" t="n">
-        <v>290.8730133158209</v>
+        <v>290.8730133158208</v>
       </c>
       <c r="M12" t="n">
-        <v>358.9874790390624</v>
+        <v>358.9874790390622</v>
       </c>
       <c r="N12" t="n">
-        <v>383.0429961922272</v>
+        <v>383.0429961922271</v>
       </c>
       <c r="O12" t="n">
-        <v>327.9652704179366</v>
+        <v>327.9652704179364</v>
       </c>
       <c r="P12" t="n">
-        <v>562.1554623386334</v>
+        <v>243.6926936986961</v>
       </c>
       <c r="Q12" t="n">
-        <v>152.4353396855361</v>
+        <v>322.5559691322457</v>
       </c>
       <c r="R12" t="n">
-        <v>22.63732142078706</v>
+        <v>22.63732142078702</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>23.86813245058018</v>
+        <v>23.86813245058013</v>
       </c>
       <c r="K13" t="n">
-        <v>170.3709935295875</v>
+        <v>170.3709935295874</v>
       </c>
       <c r="L13" t="n">
         <v>274.1035227175432</v>
       </c>
       <c r="M13" t="n">
-        <v>299.4977962876915</v>
+        <v>299.4977962876914</v>
       </c>
       <c r="N13" t="n">
-        <v>297.8659196396851</v>
+        <v>297.865919639685</v>
       </c>
       <c r="O13" t="n">
         <v>258.9493115061252</v>
       </c>
       <c r="P13" t="n">
-        <v>197.8176059917461</v>
+        <v>197.817605991746</v>
       </c>
       <c r="Q13" t="n">
-        <v>52.68079795403624</v>
+        <v>52.68079795403621</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>132.6846713669509</v>
+        <v>132.6846713669508</v>
       </c>
       <c r="K14" t="n">
-        <v>250.1109559575408</v>
+        <v>250.1109559575406</v>
       </c>
       <c r="L14" t="n">
-        <v>347.5592641161277</v>
+        <v>347.5592641161275</v>
       </c>
       <c r="M14" t="n">
-        <v>418.7159795815594</v>
+        <v>418.7159795815591</v>
       </c>
       <c r="N14" t="n">
-        <v>430.1516543891398</v>
+        <v>430.1516543891395</v>
       </c>
       <c r="O14" t="n">
-        <v>392.710048718805</v>
+        <v>392.7100487188047</v>
       </c>
       <c r="P14" t="n">
-        <v>300.319445096288</v>
+        <v>300.3194450962879</v>
       </c>
       <c r="Q14" t="n">
-        <v>176.8680561605025</v>
+        <v>176.8680561605023</v>
       </c>
       <c r="R14" t="n">
-        <v>16.61085138722501</v>
+        <v>16.61085138722493</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>186.1091904063826</v>
+        <v>186.1091904063825</v>
       </c>
       <c r="K15" t="n">
-        <v>352.504314571769</v>
+        <v>329.8669931509813</v>
       </c>
       <c r="L15" t="n">
-        <v>290.8730133158208</v>
+        <v>290.8730133158207</v>
       </c>
       <c r="M15" t="n">
-        <v>358.9874790390623</v>
+        <v>358.9874790390621</v>
       </c>
       <c r="N15" t="n">
-        <v>383.0429961922271</v>
+        <v>383.042996192227</v>
       </c>
       <c r="O15" t="n">
-        <v>327.9652704179364</v>
+        <v>327.9652704179363</v>
       </c>
       <c r="P15" t="n">
-        <v>243.6926936986961</v>
+        <v>243.692693698696</v>
       </c>
       <c r="Q15" t="n">
-        <v>322.5559691322457</v>
+        <v>322.5559691322455</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>22.63732142078699</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>23.86813245058015</v>
+        <v>23.86813245058011</v>
       </c>
       <c r="K16" t="n">
-        <v>170.3709935295874</v>
+        <v>170.3709935295873</v>
       </c>
       <c r="L16" t="n">
-        <v>274.1035227175432</v>
+        <v>274.1035227175431</v>
       </c>
       <c r="M16" t="n">
         <v>299.4977962876914</v>
       </c>
       <c r="N16" t="n">
-        <v>297.8659196396851</v>
+        <v>297.865919639685</v>
       </c>
       <c r="O16" t="n">
-        <v>258.9493115061252</v>
+        <v>258.9493115061251</v>
       </c>
       <c r="P16" t="n">
-        <v>197.8176059917461</v>
+        <v>197.817605991746</v>
       </c>
       <c r="Q16" t="n">
-        <v>52.68079795403621</v>
+        <v>52.68079795403615</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35965,10 +35965,10 @@
         <v>186.1091904063826</v>
       </c>
       <c r="K18" t="n">
-        <v>445.9900909703316</v>
+        <v>181.524853957753</v>
       </c>
       <c r="L18" t="n">
-        <v>290.8730133158208</v>
+        <v>622.7228616087747</v>
       </c>
       <c r="M18" t="n">
         <v>358.9874790390622</v>
@@ -35983,10 +35983,10 @@
         <v>243.6926936986961</v>
       </c>
       <c r="Q18" t="n">
-        <v>229.0701927336825</v>
+        <v>139.0482600325192</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>22.63732142078702</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>176.8680561605024</v>
       </c>
       <c r="R20" t="n">
-        <v>16.61085138722498</v>
+        <v>16.61085138722467</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>60.01815506597376</v>
+        <v>186.1091904063826</v>
       </c>
       <c r="K21" t="n">
-        <v>370.2098690080882</v>
+        <v>445.9900909703316</v>
       </c>
       <c r="L21" t="n">
-        <v>290.8730133158208</v>
+        <v>407.4645246531057</v>
       </c>
       <c r="M21" t="n">
         <v>358.9874790390622</v>
@@ -36217,7 +36217,7 @@
         <v>327.9652704179364</v>
       </c>
       <c r="P21" t="n">
-        <v>562.1554623386332</v>
+        <v>243.6926936986961</v>
       </c>
       <c r="Q21" t="n">
         <v>112.4786813963966</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>132.6846713669509</v>
+        <v>139.8619362969974</v>
       </c>
       <c r="K23" t="n">
         <v>250.1109559575407</v>
@@ -36378,7 +36378,7 @@
         <v>300.319445096288</v>
       </c>
       <c r="Q23" t="n">
-        <v>184.0453210905482</v>
+        <v>176.8680561605024</v>
       </c>
       <c r="R23" t="n">
         <v>82.32727126020743</v>
@@ -36439,7 +36439,7 @@
         <v>60.01815506597376</v>
       </c>
       <c r="K24" t="n">
-        <v>233.026266075268</v>
+        <v>445.9900909703316</v>
       </c>
       <c r="L24" t="n">
         <v>290.8730133158208</v>
@@ -36454,7 +36454,7 @@
         <v>327.9652704179364</v>
       </c>
       <c r="P24" t="n">
-        <v>562.1554623386332</v>
+        <v>349.19163744357</v>
       </c>
       <c r="Q24" t="n">
         <v>322.5559691322457</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>60.01815506597376</v>
+        <v>186.1091904063826</v>
       </c>
       <c r="K27" t="n">
-        <v>233.0262660752684</v>
+        <v>402.7606779540096</v>
       </c>
       <c r="L27" t="n">
         <v>290.8730133158208</v>
@@ -36691,13 +36691,13 @@
         <v>327.9652704179364</v>
       </c>
       <c r="P27" t="n">
-        <v>562.1554623386332</v>
+        <v>243.6926936986961</v>
       </c>
       <c r="Q27" t="n">
         <v>322.5559691322457</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>22.63732142078702</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36849,13 +36849,13 @@
         <v>392.7100487188048</v>
       </c>
       <c r="P29" t="n">
-        <v>373.2131298993168</v>
+        <v>300.319445096288</v>
       </c>
       <c r="Q29" t="n">
-        <v>176.8680561605024</v>
+        <v>184.0453210905487</v>
       </c>
       <c r="R29" t="n">
-        <v>16.61085138722498</v>
+        <v>82.32727126020743</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>186.1091904063826</v>
       </c>
       <c r="K30" t="n">
-        <v>425.3979993747967</v>
+        <v>402.7606779540096</v>
       </c>
       <c r="L30" t="n">
         <v>290.8730133158208</v>
@@ -36934,7 +36934,7 @@
         <v>322.5559691322457</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>22.63732142078702</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37080,7 +37080,7 @@
         <v>418.7159795815593</v>
       </c>
       <c r="N32" t="n">
-        <v>503.0453391921686</v>
+        <v>430.1516543891397</v>
       </c>
       <c r="O32" t="n">
         <v>392.7100487188048</v>
@@ -37089,10 +37089,10 @@
         <v>300.319445096288</v>
       </c>
       <c r="Q32" t="n">
-        <v>176.8680561605024</v>
+        <v>184.0453210905487</v>
       </c>
       <c r="R32" t="n">
-        <v>16.61085138722498</v>
+        <v>82.32727126020743</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>60.01815506597376</v>
+        <v>165.5170988108477</v>
       </c>
       <c r="K33" t="n">
-        <v>233.0262660752684</v>
+        <v>445.9900909703316</v>
       </c>
       <c r="L33" t="n">
         <v>290.8730133158208</v>
@@ -37165,7 +37165,7 @@
         <v>327.9652704179364</v>
       </c>
       <c r="P33" t="n">
-        <v>562.1554623386332</v>
+        <v>243.6926936986961</v>
       </c>
       <c r="Q33" t="n">
         <v>322.5559691322457</v>
@@ -37329,7 +37329,7 @@
         <v>176.8680561605024</v>
       </c>
       <c r="R35" t="n">
-        <v>16.61085138722498</v>
+        <v>16.61085138722467</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>186.1091904063826</v>
+        <v>92.62341400781841</v>
       </c>
       <c r="K36" t="n">
         <v>445.9900909703316</v>
       </c>
       <c r="L36" t="n">
-        <v>384.8272032323187</v>
+        <v>290.8730133158208</v>
       </c>
       <c r="M36" t="n">
         <v>358.9874790390622</v>
@@ -37405,10 +37405,10 @@
         <v>243.6926936986961</v>
       </c>
       <c r="Q36" t="n">
-        <v>112.4786813963966</v>
+        <v>322.5559691322457</v>
       </c>
       <c r="R36" t="n">
-        <v>22.63732142078702</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>347.5592641161276</v>
       </c>
       <c r="M38" t="n">
-        <v>418.7159795815593</v>
+        <v>418.7159795815591</v>
       </c>
       <c r="N38" t="n">
         <v>430.1516543891397</v>
@@ -37566,7 +37566,7 @@
         <v>176.8680561605024</v>
       </c>
       <c r="R38" t="n">
-        <v>16.61085138722467</v>
+        <v>16.61085138722498</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>186.1091904063826</v>
+        <v>69.98609258703137</v>
       </c>
       <c r="K39" t="n">
-        <v>267.8240111167779</v>
+        <v>445.9900909703316</v>
       </c>
       <c r="L39" t="n">
         <v>290.8730133158208</v>
@@ -37636,16 +37636,16 @@
         <v>383.0429961922271</v>
       </c>
       <c r="O39" t="n">
-        <v>622.7228616087747</v>
+        <v>327.9652704179364</v>
       </c>
       <c r="P39" t="n">
         <v>243.6926936986961</v>
       </c>
       <c r="Q39" t="n">
-        <v>112.4786813963966</v>
+        <v>322.5559691322457</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>22.63732142078702</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>132.6846713669509</v>
+        <v>132.6846713669506</v>
       </c>
       <c r="K41" t="n">
         <v>250.1109559575407</v>
@@ -37803,7 +37803,7 @@
         <v>176.8680561605024</v>
       </c>
       <c r="R41" t="n">
-        <v>16.61085138722973</v>
+        <v>16.61085138722498</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>60.01815506597376</v>
+        <v>92.62341400781841</v>
       </c>
       <c r="K42" t="n">
-        <v>356.8227893550756</v>
+        <v>445.9900909703316</v>
       </c>
       <c r="L42" t="n">
-        <v>622.722861608776</v>
+        <v>290.8730133158208</v>
       </c>
       <c r="M42" t="n">
         <v>358.9874790390622</v>
@@ -37879,7 +37879,7 @@
         <v>243.6926936986961</v>
       </c>
       <c r="Q42" t="n">
-        <v>112.4786813963966</v>
+        <v>322.5559691322457</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>132.684671366956</v>
+        <v>132.6846713669509</v>
       </c>
       <c r="K44" t="n">
         <v>250.1109559575407</v>
@@ -38098,7 +38098,7 @@
         <v>186.1091904063826</v>
       </c>
       <c r="K45" t="n">
-        <v>352.5043145717728</v>
+        <v>329.8669931509803</v>
       </c>
       <c r="L45" t="n">
         <v>290.8730133158208</v>
@@ -38119,7 +38119,7 @@
         <v>322.5559691322457</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>22.63732142078702</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
